--- a/backend/data/Estoque atual.xlsx
+++ b/backend/data/Estoque atual.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:K44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -493,17 +493,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>DOCTBCAM020W19</t>
+          <t>NOFDSP4LCRQF3</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>M93p Desktop (ThinkCentre) - Type 10AA</t>
+          <t>Latitude 3410</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Intel(R) Core(TM) i5-4590T CPU @ 2.00GHz</t>
+          <t>Intel(R) Core(TM) i5-10210U CPU @ 1.60GHz</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -518,17 +518,17 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Não possui</t>
+          <t>Problema no Autofalante</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>PE020W19</t>
+          <t>4LCRQF3</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Desktop</t>
+          <t>Notebook</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
@@ -538,17 +538,17 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DOCTBCAM020W19</t>
+          <t>NOFIRJE02411J</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>M93p Desktop (ThinkCentre) - Type 10AA</t>
+          <t>L440 Laptop (ThinkPad) - Type 20AS</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Intel(R) Core(TM) i5-4590T CPU @ 2.00GHz</t>
+          <t>Intel(R) Core(TM) i5-4300M CPU @ 2.60GHz</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -558,7 +558,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>223 GB</t>
+          <t>465 GB</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -568,17 +568,1862 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>PE020W19</t>
+          <t>PE02411J</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Desktop</t>
+          <t>Notebook</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>ESTOQUESP0240ZR</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>L440 Laptop (ThinkPad) - Type 20AS</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Intel(R) Core(TM) i5-4300M CPU @ 2.60GHz</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>7,884 GB</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>223 GB</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Não possui</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>PE0240ZR</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Notebook</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>NOCTBSP01X6WL</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>L440 Laptop (ThinkPad) - Type 20AS</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Intel(R) Core(TM) i5-4300M CPU @ 2.60GHz</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>7,884 GB</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>223 GB</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Não possui</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>PE01X6WL</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Notebook</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>NOCTBSP01X6RW</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>L440 Laptop (ThinkPad) - Type 20AS</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Intel(R) Core(TM) i5-4300M CPU @ 2.60GHz</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>7,884 GB</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>223 GB</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Não possui</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>PE01X6RW</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Notebook</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>NOFPCUR023LZT</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>L440 Laptop (ThinkPad) - Type 20AS</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Intel(R) Core(TM) i5-4300M CPU @ 2.60GHz</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>8 GB</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>223 GB</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Sem bateria</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>PE023LZT</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Notebook</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>NOFPCUR02413M</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>L440 Laptop (ThinkPad) - Type 20AS</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Intel(R) Core(TM) i5-4300M CPU @ 2.60GHz</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>7,7 GB</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>223 GB</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Sem bateria</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>PE02413M</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Notebook</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>NOFICUR02AXM0</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>L440 Laptop (ThinkPad) - Type 20AS</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Intel(R) Core(TM) i5-4300M CPU @ 2.60GHz</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>7,883 GB</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>223 GB</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Formatar/Estoque</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>PE02AXM0</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Notebook</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>NOCTBSP44XV9V3</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Latitude 3420</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>11th Gen Intel(R) Core(TM) i5-1135G7 @ 2.40GHz</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>7,749 GB</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>223 GB</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Formatar/Estoque</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>44XV9V3</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Notebook</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>NOFPSP12XV9V3</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Latitude 3420</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>11th Gen Intel(R) Core(TM) i5-1135G7 @ 2.40GHz</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>8 GB</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>238 GB</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Problemas nas Teclas</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>12XV9V3</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Notebook</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>NTTDSP10XV9V3</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Latitude 3420</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>11th Gen Intel(R) Core(TM) i5-1135G7 @ 2.40GHz</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>7,741 GB</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>238 GB</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Não possui</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>10XV9V3</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Notebook</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>NOCTBCURHGL9CD2</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Latitude 3470</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Intel(R) Core(TM) i5-6200U CPU @ 2.30GHz</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>8 GB</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>223 GB</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Fonte Ruim</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>HGL9CD2</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Notebook</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>ESTOQUE01WHF6</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>T450 Laptop (ThinkPad) - Type 20BU</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Intel(R) Core(TM) i5-5300U CPU @ 2.30GHz</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>7,882 GB</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>223 GB</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Trocado</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>PE01WHF6</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Notebook</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>NOFICURH55B3N2</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Vostro 14 3468</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Intel(R) Core(TM) i5-7200U CPU @ 2.50GHz</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>8 GB</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>223 GB</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Não possui</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>H55B3N2</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Notebook</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>NOFDSPF28SD93</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Vostro 3480</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Intel(R) Core(TM) i5-8265U CPU @ 1.60GHz</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>8 GB</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>223 GB</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Não possui</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>F28SD93</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Notebook</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>ESTOQUEE03CJZV</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>V520s Desktop (Lenovo) - Type 10NN</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Intel(R) Core(TM) i5-7400 CPU @ 3.00GHz</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>7,913 GB</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>223 GB</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Não possui</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>PE03CJZV</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Notebook</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>ESTOQUE03CJYH</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>V520s Desktop (Lenovo) - Type 10NN</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Intel(R) Core(TM) i5-7400 CPU @ 3.00GHz</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>7,913 GB</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>223 GB</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Não possui</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>PE03CJYH</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Notebook</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>DOCTBCAME020WEH</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>M93p Desktop (ThinkCentre) - Type 10AA</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Intel(R) Core(TM) i5-4590T CPU @ 2.00GHz</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>7,799 GB</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>223 GB</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Não possui</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>PE020WEH</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Desktop</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>DOFISPBW3Z0N3</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Optiplex 3080</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Intel(R) Core(TM) i5-10500T CPU @ 2.30GHz</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>8 GB</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>238 GB</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Não possui</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>BW3Z0N3</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Notebook</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr"/>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>DOCTBCAMDG3Z0N3</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Optiplex 3080</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Intel(R) Core(TM) i5-10500T CPU @ 2.30GHz</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>7,753 GB</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>238 GB</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Não possui</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>DG3Z0N3</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>Notebook</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>DOFISP020WJM</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>M93p Desktop (ThinkCentre) - Type 10AA</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Intel(R) Core(TM) i5-4590T CPU @ 2.00GHz</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>7,799 GB</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>223 GB</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Não possui</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>PE020U9B</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>Desktop</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>DOESCSP020W47</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>M93p Desktop (ThinkCentre) - Type 10AA</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Intel(R) Core(TM) i5-4590T CPU @ 2.00GHz</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>8 GB</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>223 GB</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Não possui</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>PE020WJL</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>Desktop</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>DOESCSP020U17</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>M93p Desktop (ThinkCentre) - Type 10AA</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Intel(R) Core(TM) i5-4590T CPU @ 2.00GHz</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>8 GB</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>223 GB</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Não possui</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>PE020U17</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>Desktop</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr"/>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>DOFICUR0246BD</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>M93p Desktop (ThinkCentre) - Type 10AA</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Intel(R) Core(TM) i5-4590T CPU @ 2.00GHz</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>8 GB</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>223 GB</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Não possui</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>PE0246BD</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>Desktop</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>ESTOQUE020VQ8</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>M93p Desktop (ThinkCentre) - Type 10AA</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Intel(R) Core(TM) i5-4590T CPU @ 2.00GHz</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>7,799 GB</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>465 GB</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Não possui</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>PE020VQ8</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>Desktop</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>DOCTBRJ0246AD</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>M93p Desktop (ThinkCentre) - Type 10AA</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Intel(R) Core(TM) i5-4590T CPU @ 2.00GHz</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>7,799 GB</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>465 GB</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Não possui</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>PE0246AD</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>Desktop</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>DOESCSP0245XV</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Desktop M93p (ThinkCentre) - Tipo 10AA</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Intel(R) Core(TM) i5-4590T CPU @ 2.00GHz</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>8 GB</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>223 GB</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Não possui</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>PE0245XV</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>Desktop</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>ESTOQUE020W40</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>M93p Desktop (ThinkCentre) - Type 10AA</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Intel(R) Core(TM) i5-4590T CPU @ 2.00GHz</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>7,799 GB</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>223 GB</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Não possui</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>PE020W40</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>Desktop</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>ESTOQUE020UA2</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Desktop M93p (ThinkCentre) - Tipo 10AA</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Intel(R) Core(TM) i5-4590T CPU @ 2.00GHz</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>7,798 GB</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>223 GB</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Não possui</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>PE020UA2</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>Desktop</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr"/>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>DOCTBSP020W47</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>M93p Desktop (ThinkCentre) - Type 10AA</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Intel(R) Core(TM) i5-4590T CPU @ 2.00GHz</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>7,799 GB</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>223 GB</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Não possui</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>PE020W47</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>Desktop</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>DOCTBSP020VL8</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>M93p Desktop (ThinkCentre) - Type 10AA</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Intel(R) Core(TM) i5-4590T CPU @ 2.00GHz</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>7,799 GB</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>223 GB</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Não possui</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>PE020VL8</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>Desktop</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr"/>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>DOFPCUR020VXM</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>M93p Desktop (ThinkCentre) - Type 10AA</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Intel(R) Core(TM) i5-4590T CPU @ 2.00GHz</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>8 GB</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>223 GB</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Não possui</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>PE020VXM</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>Desktop</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr"/>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>DOFINSP020TY6</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>M93p Desktop (ThinkCentre) - Type 10AA</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Intel(R) Core(TM) i5-4590T CPU @ 2.00GHz</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>7,892 GB</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>223 GB</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>Não possui</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>PE020TY6</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>Desktop</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr"/>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>DOFINSP020TFC</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>M93p Desktop (ThinkCentre) - Type 10AA</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Intel(R) Core(TM) i5-4590T CPU @ 2.00GHz</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>7,799 GB</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>223 GB</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>Não possui</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>PE020TYU</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>Desktop</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr"/>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>DOFISP020WFE</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>M93p Desktop (ThinkCentre) - Type 10AA</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Intel(R) Core(TM) i5-4590T CPU @ 2.00GHz</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>7,798 GB</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>223 GB</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>Não possui</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>PE020WFE</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>Desktop</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>DOFPCAM020VR3</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Desktop M93p (ThinkCentre) - Tipo 10AA</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Intel(R) Core(TM) i5-4590T CPU @ 2.00GHz</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>7,799 GB</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>223 GB</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>Não possui</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>PE020VR3</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>Desktop</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr"/>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>ESTOQUE020UEK</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Desktop M93p (ThinkCentre) - Tipo 10AA</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Intel(R) Core(TM) i5-4590T CPU @ 2.00GHz</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>7,799 GB</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>223 GB</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>Não possui</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>PE020UEK</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>Desktop</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr"/>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>ESTOQUE020VD1</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>M93p Desktop (ThinkCentre) - Type 10AA</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Intel(R) Core(TM) i5-4590T CPU @ 2.00GHz</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>7,799 GB</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>465 GB</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>Não possui</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>PE020VD1</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>Desktop</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr"/>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>DOESCSP020U99</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>M93p Desktop (ThinkCentre) - Type 10AA</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Intel(R) Core(TM) i5-4590T CPU @ 2.00GHz</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>7,799 GB</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>223 GB</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>Não possui</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>PE020W2K</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>Desktop</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr"/>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>DOESCSP020U99</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>M93p Desktop (ThinkCentre) - Type 10AA</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Intel(R) Core(TM) i5-4590T CPU @ 2.00GHz</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>7,799 GB</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>223 GB</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>Não possui</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>PE0246BC</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>Desktop</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr"/>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>DOESCSP020U99</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>M93p Desktop (ThinkCentre) - Type 10AA</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Intel(R) Core(TM) i5-4590T CPU @ 2.00GHz</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>7,799 GB</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>223 GB</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>Não possui</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>PE020WH4</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>Desktop</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr"/>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>DOESCSP020U99</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>M93p Desktop (ThinkCentre) - Type 10AA</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Intel(R) Core(TM) i5-4590T CPU @ 2.00GHz</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>7,799 GB</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>223 GB</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>Não possui</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>PE020VLQ</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>Desktop</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr"/>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>DOESCSP020U99</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>M93p Desktop (ThinkCentre) - Type 10AA</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>Intel(R) Core(TM) i5-4590T CPU @ 2.00GHz</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>7,799 GB</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>223 GB</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>Não possui</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>PE020VJS</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>Desktop</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr"/>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/backend/data/Estoque atual.xlsx
+++ b/backend/data/Estoque atual.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K44"/>
+  <dimension ref="A1:K43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2380,51 +2380,6 @@
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
     </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>DOESCSP020U99</t>
-        </is>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>M93p Desktop (ThinkCentre) - Type 10AA</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>Intel(R) Core(TM) i5-4590T CPU @ 2.00GHz</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>7,799 GB</t>
-        </is>
-      </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>223 GB</t>
-        </is>
-      </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>Não possui</t>
-        </is>
-      </c>
-      <c r="G44" t="inlineStr">
-        <is>
-          <t>PE020VJS</t>
-        </is>
-      </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>Desktop</t>
-        </is>
-      </c>
-      <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/backend/data/Estoque atual.xlsx
+++ b/backend/data/Estoque atual.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucas.lira\Desktop\GoupJs-main\backend\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lukin\Desktop\GoupJs\backend\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DA00729-7CB7-41F5-AACE-B917F8789727}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F4E9E10-54CA-4D31-B6AD-997408CB8745}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="125">
   <si>
     <t>NomeDispositivo</t>
   </si>
@@ -311,9 +311,6 @@
   </si>
   <si>
     <t>DOESCSP0245XV</t>
-  </si>
-  <si>
-    <t>Desktop M93p (ThinkCentre) - Tipo 10AA</t>
   </si>
   <si>
     <t>PE0245XV</t>
@@ -762,12 +759,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34:D43"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="H21" sqref="H20:H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="2" max="2" width="38.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1219,7 +1217,7 @@
         <v>70</v>
       </c>
       <c r="H17" t="s">
-        <v>18</v>
+        <v>77</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
@@ -1245,7 +1243,7 @@
         <v>72</v>
       </c>
       <c r="H18" t="s">
-        <v>18</v>
+        <v>77</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -1297,7 +1295,7 @@
         <v>81</v>
       </c>
       <c r="H20" t="s">
-        <v>18</v>
+        <v>77</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
@@ -1323,7 +1321,7 @@
         <v>83</v>
       </c>
       <c r="H21" t="s">
-        <v>18</v>
+        <v>77</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
@@ -1487,22 +1485,22 @@
         <v>96</v>
       </c>
       <c r="B28" t="s">
+        <v>74</v>
+      </c>
+      <c r="C28" t="s">
+        <v>75</v>
+      </c>
+      <c r="D28" t="s">
+        <v>14</v>
+      </c>
+      <c r="E28" t="s">
+        <v>15</v>
+      </c>
+      <c r="F28" t="s">
+        <v>23</v>
+      </c>
+      <c r="G28" t="s">
         <v>97</v>
-      </c>
-      <c r="C28" t="s">
-        <v>75</v>
-      </c>
-      <c r="D28" t="s">
-        <v>14</v>
-      </c>
-      <c r="E28" t="s">
-        <v>15</v>
-      </c>
-      <c r="F28" t="s">
-        <v>23</v>
-      </c>
-      <c r="G28" t="s">
-        <v>98</v>
       </c>
       <c r="H28" t="s">
         <v>77</v>
@@ -1510,25 +1508,25 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
+        <v>98</v>
+      </c>
+      <c r="B29" t="s">
+        <v>74</v>
+      </c>
+      <c r="C29" t="s">
+        <v>75</v>
+      </c>
+      <c r="D29" t="s">
+        <v>14</v>
+      </c>
+      <c r="E29" t="s">
+        <v>15</v>
+      </c>
+      <c r="F29" t="s">
+        <v>23</v>
+      </c>
+      <c r="G29" t="s">
         <v>99</v>
-      </c>
-      <c r="B29" t="s">
-        <v>74</v>
-      </c>
-      <c r="C29" t="s">
-        <v>75</v>
-      </c>
-      <c r="D29" t="s">
-        <v>14</v>
-      </c>
-      <c r="E29" t="s">
-        <v>15</v>
-      </c>
-      <c r="F29" t="s">
-        <v>23</v>
-      </c>
-      <c r="G29" t="s">
-        <v>100</v>
       </c>
       <c r="H29" t="s">
         <v>77</v>
@@ -1536,25 +1534,25 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
+        <v>100</v>
+      </c>
+      <c r="B30" t="s">
+        <v>74</v>
+      </c>
+      <c r="C30" t="s">
+        <v>75</v>
+      </c>
+      <c r="D30" t="s">
+        <v>14</v>
+      </c>
+      <c r="E30" t="s">
+        <v>15</v>
+      </c>
+      <c r="F30" t="s">
+        <v>23</v>
+      </c>
+      <c r="G30" t="s">
         <v>101</v>
-      </c>
-      <c r="B30" t="s">
-        <v>97</v>
-      </c>
-      <c r="C30" t="s">
-        <v>75</v>
-      </c>
-      <c r="D30" t="s">
-        <v>14</v>
-      </c>
-      <c r="E30" t="s">
-        <v>15</v>
-      </c>
-      <c r="F30" t="s">
-        <v>23</v>
-      </c>
-      <c r="G30" t="s">
-        <v>102</v>
       </c>
       <c r="H30" t="s">
         <v>77</v>
@@ -1562,25 +1560,25 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
+        <v>102</v>
+      </c>
+      <c r="B31" t="s">
+        <v>74</v>
+      </c>
+      <c r="C31" t="s">
+        <v>75</v>
+      </c>
+      <c r="D31" t="s">
+        <v>14</v>
+      </c>
+      <c r="E31" t="s">
+        <v>15</v>
+      </c>
+      <c r="F31" t="s">
+        <v>23</v>
+      </c>
+      <c r="G31" t="s">
         <v>103</v>
-      </c>
-      <c r="B31" t="s">
-        <v>74</v>
-      </c>
-      <c r="C31" t="s">
-        <v>75</v>
-      </c>
-      <c r="D31" t="s">
-        <v>14</v>
-      </c>
-      <c r="E31" t="s">
-        <v>15</v>
-      </c>
-      <c r="F31" t="s">
-        <v>23</v>
-      </c>
-      <c r="G31" t="s">
-        <v>104</v>
       </c>
       <c r="H31" t="s">
         <v>77</v>
@@ -1588,25 +1586,25 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
+        <v>104</v>
+      </c>
+      <c r="B32" t="s">
+        <v>74</v>
+      </c>
+      <c r="C32" t="s">
+        <v>75</v>
+      </c>
+      <c r="D32" t="s">
+        <v>14</v>
+      </c>
+      <c r="E32" t="s">
+        <v>15</v>
+      </c>
+      <c r="F32" t="s">
+        <v>23</v>
+      </c>
+      <c r="G32" t="s">
         <v>105</v>
-      </c>
-      <c r="B32" t="s">
-        <v>74</v>
-      </c>
-      <c r="C32" t="s">
-        <v>75</v>
-      </c>
-      <c r="D32" t="s">
-        <v>14</v>
-      </c>
-      <c r="E32" t="s">
-        <v>15</v>
-      </c>
-      <c r="F32" t="s">
-        <v>23</v>
-      </c>
-      <c r="G32" t="s">
-        <v>106</v>
       </c>
       <c r="H32" t="s">
         <v>77</v>
@@ -1614,25 +1612,25 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
+        <v>106</v>
+      </c>
+      <c r="B33" t="s">
+        <v>74</v>
+      </c>
+      <c r="C33" t="s">
+        <v>75</v>
+      </c>
+      <c r="D33" t="s">
+        <v>14</v>
+      </c>
+      <c r="E33" t="s">
+        <v>15</v>
+      </c>
+      <c r="F33" t="s">
+        <v>23</v>
+      </c>
+      <c r="G33" t="s">
         <v>107</v>
-      </c>
-      <c r="B33" t="s">
-        <v>74</v>
-      </c>
-      <c r="C33" t="s">
-        <v>75</v>
-      </c>
-      <c r="D33" t="s">
-        <v>14</v>
-      </c>
-      <c r="E33" t="s">
-        <v>15</v>
-      </c>
-      <c r="F33" t="s">
-        <v>23</v>
-      </c>
-      <c r="G33" t="s">
-        <v>108</v>
       </c>
       <c r="H33" t="s">
         <v>77</v>
@@ -1640,25 +1638,25 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
+        <v>108</v>
+      </c>
+      <c r="B34" t="s">
+        <v>74</v>
+      </c>
+      <c r="C34" t="s">
+        <v>75</v>
+      </c>
+      <c r="D34" t="s">
+        <v>14</v>
+      </c>
+      <c r="E34" t="s">
+        <v>15</v>
+      </c>
+      <c r="F34" t="s">
+        <v>23</v>
+      </c>
+      <c r="G34" t="s">
         <v>109</v>
-      </c>
-      <c r="B34" t="s">
-        <v>74</v>
-      </c>
-      <c r="C34" t="s">
-        <v>75</v>
-      </c>
-      <c r="D34" t="s">
-        <v>14</v>
-      </c>
-      <c r="E34" t="s">
-        <v>15</v>
-      </c>
-      <c r="F34" t="s">
-        <v>23</v>
-      </c>
-      <c r="G34" t="s">
-        <v>110</v>
       </c>
       <c r="H34" t="s">
         <v>77</v>
@@ -1666,25 +1664,25 @@
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
+        <v>110</v>
+      </c>
+      <c r="B35" t="s">
+        <v>74</v>
+      </c>
+      <c r="C35" t="s">
+        <v>75</v>
+      </c>
+      <c r="D35" t="s">
+        <v>14</v>
+      </c>
+      <c r="E35" t="s">
+        <v>15</v>
+      </c>
+      <c r="F35" t="s">
+        <v>23</v>
+      </c>
+      <c r="G35" t="s">
         <v>111</v>
-      </c>
-      <c r="B35" t="s">
-        <v>74</v>
-      </c>
-      <c r="C35" t="s">
-        <v>75</v>
-      </c>
-      <c r="D35" t="s">
-        <v>14</v>
-      </c>
-      <c r="E35" t="s">
-        <v>15</v>
-      </c>
-      <c r="F35" t="s">
-        <v>23</v>
-      </c>
-      <c r="G35" t="s">
-        <v>112</v>
       </c>
       <c r="H35" t="s">
         <v>77</v>
@@ -1692,25 +1690,25 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
+        <v>112</v>
+      </c>
+      <c r="B36" t="s">
+        <v>74</v>
+      </c>
+      <c r="C36" t="s">
+        <v>75</v>
+      </c>
+      <c r="D36" t="s">
+        <v>14</v>
+      </c>
+      <c r="E36" t="s">
+        <v>15</v>
+      </c>
+      <c r="F36" t="s">
+        <v>23</v>
+      </c>
+      <c r="G36" t="s">
         <v>113</v>
-      </c>
-      <c r="B36" t="s">
-        <v>74</v>
-      </c>
-      <c r="C36" t="s">
-        <v>75</v>
-      </c>
-      <c r="D36" t="s">
-        <v>14</v>
-      </c>
-      <c r="E36" t="s">
-        <v>15</v>
-      </c>
-      <c r="F36" t="s">
-        <v>23</v>
-      </c>
-      <c r="G36" t="s">
-        <v>114</v>
       </c>
       <c r="H36" t="s">
         <v>77</v>
@@ -1718,25 +1716,25 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
+        <v>114</v>
+      </c>
+      <c r="B37" t="s">
+        <v>74</v>
+      </c>
+      <c r="C37" t="s">
+        <v>75</v>
+      </c>
+      <c r="D37" t="s">
+        <v>14</v>
+      </c>
+      <c r="E37" t="s">
+        <v>15</v>
+      </c>
+      <c r="F37" t="s">
+        <v>23</v>
+      </c>
+      <c r="G37" t="s">
         <v>115</v>
-      </c>
-      <c r="B37" t="s">
-        <v>97</v>
-      </c>
-      <c r="C37" t="s">
-        <v>75</v>
-      </c>
-      <c r="D37" t="s">
-        <v>14</v>
-      </c>
-      <c r="E37" t="s">
-        <v>15</v>
-      </c>
-      <c r="F37" t="s">
-        <v>23</v>
-      </c>
-      <c r="G37" t="s">
-        <v>116</v>
       </c>
       <c r="H37" t="s">
         <v>77</v>
@@ -1744,25 +1742,25 @@
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
+        <v>116</v>
+      </c>
+      <c r="B38" t="s">
+        <v>74</v>
+      </c>
+      <c r="C38" t="s">
+        <v>75</v>
+      </c>
+      <c r="D38" t="s">
+        <v>14</v>
+      </c>
+      <c r="E38" t="s">
+        <v>15</v>
+      </c>
+      <c r="F38" t="s">
+        <v>23</v>
+      </c>
+      <c r="G38" t="s">
         <v>117</v>
-      </c>
-      <c r="B38" t="s">
-        <v>97</v>
-      </c>
-      <c r="C38" t="s">
-        <v>75</v>
-      </c>
-      <c r="D38" t="s">
-        <v>14</v>
-      </c>
-      <c r="E38" t="s">
-        <v>15</v>
-      </c>
-      <c r="F38" t="s">
-        <v>23</v>
-      </c>
-      <c r="G38" t="s">
-        <v>118</v>
       </c>
       <c r="H38" t="s">
         <v>77</v>
@@ -1770,7 +1768,7 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B39" t="s">
         <v>74</v>
@@ -1788,7 +1786,7 @@
         <v>23</v>
       </c>
       <c r="G39" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H39" t="s">
         <v>77</v>
@@ -1796,25 +1794,25 @@
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
+        <v>120</v>
+      </c>
+      <c r="B40" t="s">
+        <v>74</v>
+      </c>
+      <c r="C40" t="s">
+        <v>75</v>
+      </c>
+      <c r="D40" t="s">
+        <v>14</v>
+      </c>
+      <c r="E40" t="s">
+        <v>15</v>
+      </c>
+      <c r="F40" t="s">
+        <v>23</v>
+      </c>
+      <c r="G40" t="s">
         <v>121</v>
-      </c>
-      <c r="B40" t="s">
-        <v>74</v>
-      </c>
-      <c r="C40" t="s">
-        <v>75</v>
-      </c>
-      <c r="D40" t="s">
-        <v>14</v>
-      </c>
-      <c r="E40" t="s">
-        <v>15</v>
-      </c>
-      <c r="F40" t="s">
-        <v>23</v>
-      </c>
-      <c r="G40" t="s">
-        <v>122</v>
       </c>
       <c r="H40" t="s">
         <v>77</v>
@@ -1822,7 +1820,7 @@
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B41" t="s">
         <v>74</v>
@@ -1840,7 +1838,7 @@
         <v>23</v>
       </c>
       <c r="G41" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H41" t="s">
         <v>77</v>
@@ -1848,7 +1846,7 @@
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B42" t="s">
         <v>74</v>
@@ -1866,7 +1864,7 @@
         <v>23</v>
       </c>
       <c r="G42" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H42" t="s">
         <v>77</v>
@@ -1874,7 +1872,7 @@
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B43" t="s">
         <v>74</v>
@@ -1892,7 +1890,7 @@
         <v>23</v>
       </c>
       <c r="G43" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H43" t="s">
         <v>77</v>

--- a/backend/data/Estoque atual.xlsx
+++ b/backend/data/Estoque atual.xlsx
@@ -1,105 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucas.lira\Desktop\GoupJs-main\backend\data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{040782DB-B74C-426F-8608-E0C865DF0B10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="19">
-  <si>
-    <t>NomeDispositivo</t>
-  </si>
-  <si>
-    <t>ModeloDispositivo</t>
-  </si>
-  <si>
-    <t>ProcessadorUsado</t>
-  </si>
-  <si>
-    <t>MemoriaTotal</t>
-  </si>
-  <si>
-    <t>ArmazenamentoInterno</t>
-  </si>
-  <si>
-    <t>ObservacaoDispositivo</t>
-  </si>
-  <si>
-    <t>SerialDispositivo</t>
-  </si>
-  <si>
-    <t>TipoDispositivo</t>
-  </si>
-  <si>
-    <t>DCCTRSP0245MR</t>
-  </si>
-  <si>
-    <t>M93p Desktop (ThinkCentre) - Type 10AA</t>
-  </si>
-  <si>
-    <t>Intel(R) Core(TM) i5-4590T CPU @ 2.00GHz</t>
-  </si>
-  <si>
-    <t>8 GB</t>
-  </si>
-  <si>
-    <t>223 GB</t>
-  </si>
-  <si>
-    <t>Não possui</t>
-  </si>
-  <si>
-    <t>PE0245MR</t>
-  </si>
-  <si>
-    <t>Desktop</t>
-  </si>
-  <si>
-    <t>Monitor</t>
-  </si>
-  <si>
-    <t>LG</t>
-  </si>
-  <si>
-    <t>1234</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -114,43 +46,93 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -438,91 +420,101 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>NomeDispositivo</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>ModeloDispositivo</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>ProcessadorUsado</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>MemoriaTotal</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>ArmazenamentoInterno</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>ObservacaoDispositivo</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>SerialDispositivo</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>TipoDispositivo</t>
+        </is>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H3" t="s">
-        <v>16</v>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>DCCTRSP0245MR</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>M93p Desktop (ThinkCentre) - Type 10AA</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Intel(R) Core(TM) i5-4590T CPU @ 2.00GHz</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>8 GB</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>223 GB</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Não possui</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>PE0245MR</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Desktop</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/backend/data/Estoque atual.xlsx
+++ b/backend/data/Estoque atual.xlsx
@@ -1,37 +1,501 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27928"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lukin\Desktop\GoupJs-main\backend\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB1E173D-E40B-4867-A4DA-22F4BADFCA75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="520" uniqueCount="146">
+  <si>
+    <t>NomeDispositivo</t>
+  </si>
+  <si>
+    <t>ModeloDispositivo</t>
+  </si>
+  <si>
+    <t>ProcessadorUsado</t>
+  </si>
+  <si>
+    <t>MemoriaTotal</t>
+  </si>
+  <si>
+    <t>ArmazenamentoInterno</t>
+  </si>
+  <si>
+    <t>ObservacaoDispositivo</t>
+  </si>
+  <si>
+    <t>SerialDispositivo</t>
+  </si>
+  <si>
+    <t>TipoDispositivo</t>
+  </si>
+  <si>
+    <t>Monitor</t>
+  </si>
+  <si>
+    <t>KCYG5XA011124</t>
+  </si>
+  <si>
+    <t>KCYG5XA018246</t>
+  </si>
+  <si>
+    <t>KCYG5XA009187</t>
+  </si>
+  <si>
+    <t>KCYG5XA004999</t>
+  </si>
+  <si>
+    <t>KCYG5XA020967</t>
+  </si>
+  <si>
+    <t>KCYG5XA019899</t>
+  </si>
+  <si>
+    <t>KCYG5XA018459</t>
+  </si>
+  <si>
+    <t>KCYG5XA011119</t>
+  </si>
+  <si>
+    <t>KCYG5XA019109</t>
+  </si>
+  <si>
+    <t>KCYG5XA004942</t>
+  </si>
+  <si>
+    <t>KCYG5XA012080</t>
+  </si>
+  <si>
+    <t>KCYG5XA018166</t>
+  </si>
+  <si>
+    <t>KCYG5XA019836</t>
+  </si>
+  <si>
+    <t>KCYG5XA005040</t>
+  </si>
+  <si>
+    <t>KCYG5XA011177</t>
+  </si>
+  <si>
+    <t>KCYG5XA011173</t>
+  </si>
+  <si>
+    <t>KCYG5XA011175</t>
+  </si>
+  <si>
+    <t>KCYG5XA011376</t>
+  </si>
+  <si>
+    <t>KCYG5XA018245</t>
+  </si>
+  <si>
+    <t>KCYG5XA011141</t>
+  </si>
+  <si>
+    <t>KCYG5XA017631</t>
+  </si>
+  <si>
+    <t>KCYG5XA018161</t>
+  </si>
+  <si>
+    <t>Não possui</t>
+  </si>
+  <si>
+    <t>AOC - E970SW</t>
+  </si>
+  <si>
+    <t>NOFDSP4LCRQF3</t>
+  </si>
+  <si>
+    <t>Latitude 3410</t>
+  </si>
+  <si>
+    <t>Intel(R) Core(TM) i5-10210U CPU @ 1.60GHz</t>
+  </si>
+  <si>
+    <t>8 GB</t>
+  </si>
+  <si>
+    <t>223 GB</t>
+  </si>
+  <si>
+    <t>Problema no Autofalante</t>
+  </si>
+  <si>
+    <t>4LCRQF3</t>
+  </si>
+  <si>
+    <t>Notebook</t>
+  </si>
+  <si>
+    <t>NOFIRJE02411J</t>
+  </si>
+  <si>
+    <t>L440 Laptop (ThinkPad) - Type 20AS</t>
+  </si>
+  <si>
+    <t>Intel(R) Core(TM) i5-4300M CPU @ 2.60GHz</t>
+  </si>
+  <si>
+    <t>465 GB</t>
+  </si>
+  <si>
+    <t>PE02411J</t>
+  </si>
+  <si>
+    <t>ESTOQUESP0240ZR</t>
+  </si>
+  <si>
+    <t>PE0240ZR</t>
+  </si>
+  <si>
+    <t>NOCTBSP01X6WL</t>
+  </si>
+  <si>
+    <t>PE01X6WL</t>
+  </si>
+  <si>
+    <t>NOCTBSP01X6RW</t>
+  </si>
+  <si>
+    <t>PE01X6RW</t>
+  </si>
+  <si>
+    <t>NOFPCUR023LZT</t>
+  </si>
+  <si>
+    <t>Sem bateria</t>
+  </si>
+  <si>
+    <t>PE023LZT</t>
+  </si>
+  <si>
+    <t>NOFPCUR02413M</t>
+  </si>
+  <si>
+    <t>PE02413M</t>
+  </si>
+  <si>
+    <t>NOFICUR02AXM0</t>
+  </si>
+  <si>
+    <t>Formatar/Estoque</t>
+  </si>
+  <si>
+    <t>PE02AXM0</t>
+  </si>
+  <si>
+    <t>NOCTBSP44XV9V3</t>
+  </si>
+  <si>
+    <t>Latitude 3420</t>
+  </si>
+  <si>
+    <t>11th Gen Intel(R) Core(TM) i5-1135G7 @ 2.40GHz</t>
+  </si>
+  <si>
+    <t>44XV9V3</t>
+  </si>
+  <si>
+    <t>NOFPSP12XV9V3</t>
+  </si>
+  <si>
+    <t>238 GB</t>
+  </si>
+  <si>
+    <t>Problemas nas Teclas</t>
+  </si>
+  <si>
+    <t>12XV9V3</t>
+  </si>
+  <si>
+    <t>NTTDSP10XV9V3</t>
+  </si>
+  <si>
+    <t>10XV9V3</t>
+  </si>
+  <si>
+    <t>NOCTBCURHGL9CD2</t>
+  </si>
+  <si>
+    <t>Latitude 3470</t>
+  </si>
+  <si>
+    <t>Intel(R) Core(TM) i5-6200U CPU @ 2.30GHz</t>
+  </si>
+  <si>
+    <t>Fonte Ruim</t>
+  </si>
+  <si>
+    <t>HGL9CD2</t>
+  </si>
+  <si>
+    <t>ESTOQUE01WHF6</t>
+  </si>
+  <si>
+    <t>T450 Laptop (ThinkPad) - Type 20BU</t>
+  </si>
+  <si>
+    <t>Intel(R) Core(TM) i5-5300U CPU @ 2.30GHz</t>
+  </si>
+  <si>
+    <t>Trocado</t>
+  </si>
+  <si>
+    <t>PE01WHF6</t>
+  </si>
+  <si>
+    <t>NOFICURH55B3N2</t>
+  </si>
+  <si>
+    <t>Vostro 14 3468</t>
+  </si>
+  <si>
+    <t>Intel(R) Core(TM) i5-7200U CPU @ 2.50GHz</t>
+  </si>
+  <si>
+    <t>H55B3N2</t>
+  </si>
+  <si>
+    <t>NOFDSPF28SD93</t>
+  </si>
+  <si>
+    <t>Vostro 3480</t>
+  </si>
+  <si>
+    <t>Intel(R) Core(TM) i5-8265U CPU @ 1.60GHz</t>
+  </si>
+  <si>
+    <t>F28SD93</t>
+  </si>
+  <si>
+    <t>ESTOQUEE03CJZV</t>
+  </si>
+  <si>
+    <t>V520s Desktop (Lenovo) - Type 10NN</t>
+  </si>
+  <si>
+    <t>Intel(R) Core(TM) i5-7400 CPU @ 3.00GHz</t>
+  </si>
+  <si>
+    <t>PE03CJZV</t>
+  </si>
+  <si>
+    <t>Desktop</t>
+  </si>
+  <si>
+    <t>ESTOQUE03CJYH</t>
+  </si>
+  <si>
+    <t>PE03CJYH</t>
+  </si>
+  <si>
+    <t>DOCTBCAME020WEH</t>
+  </si>
+  <si>
+    <t>M93p Desktop (ThinkCentre) - Type 10AA</t>
+  </si>
+  <si>
+    <t>Intel(R) Core(TM) i5-4590T CPU @ 2.00GHz</t>
+  </si>
+  <si>
+    <t>PE020WEH</t>
+  </si>
+  <si>
+    <t>DOFISPBW3Z0N3</t>
+  </si>
+  <si>
+    <t>Optiplex 3080</t>
+  </si>
+  <si>
+    <t>Intel(R) Core(TM) i5-10500T CPU @ 2.30GHz</t>
+  </si>
+  <si>
+    <t>BW3Z0N3</t>
+  </si>
+  <si>
+    <t>DOCTBCAMDG3Z0N3</t>
+  </si>
+  <si>
+    <t>DG3Z0N3</t>
+  </si>
+  <si>
+    <t>DOFISP020WJM</t>
+  </si>
+  <si>
+    <t>PE020U9B</t>
+  </si>
+  <si>
+    <t>DOESCSP020W47</t>
+  </si>
+  <si>
+    <t>PE020WJL</t>
+  </si>
+  <si>
+    <t>DOESCSP020U17</t>
+  </si>
+  <si>
+    <t>PE020U17</t>
+  </si>
+  <si>
+    <t>DOFICUR0246BD</t>
+  </si>
+  <si>
+    <t>PE0246BD</t>
+  </si>
+  <si>
+    <t>ESTOQUE020VQ8</t>
+  </si>
+  <si>
+    <t>PE020VQ8</t>
+  </si>
+  <si>
+    <t>DOCTBRJ0246AD</t>
+  </si>
+  <si>
+    <t>PE0246AD</t>
+  </si>
+  <si>
+    <t>DOESCSP0245XV</t>
+  </si>
+  <si>
+    <t>PE0245XV</t>
+  </si>
+  <si>
+    <t>ESTOQUE020W40</t>
+  </si>
+  <si>
+    <t>PE020W40</t>
+  </si>
+  <si>
+    <t>ESTOQUE020UA2</t>
+  </si>
+  <si>
+    <t>PE020UA2</t>
+  </si>
+  <si>
+    <t>DOCTBSP020W47</t>
+  </si>
+  <si>
+    <t>PE020W47</t>
+  </si>
+  <si>
+    <t>DOCTBSP020VL8</t>
+  </si>
+  <si>
+    <t>PE020VL8</t>
+  </si>
+  <si>
+    <t>DOFPCUR020VXM</t>
+  </si>
+  <si>
+    <t>PE020VXM</t>
+  </si>
+  <si>
+    <t>DOFINSP020TY6</t>
+  </si>
+  <si>
+    <t>PE020TY6</t>
+  </si>
+  <si>
+    <t>DOFINSP020TFC</t>
+  </si>
+  <si>
+    <t>PE020TYU</t>
+  </si>
+  <si>
+    <t>DOFISP020WFE</t>
+  </si>
+  <si>
+    <t>PE020WFE</t>
+  </si>
+  <si>
+    <t>DOFPCAM020VR3</t>
+  </si>
+  <si>
+    <t>PE020VR3</t>
+  </si>
+  <si>
+    <t>ESTOQUE020UEK</t>
+  </si>
+  <si>
+    <t>PE020UEK</t>
+  </si>
+  <si>
+    <t>ESTOQUE020VD1</t>
+  </si>
+  <si>
+    <t>PE020VD1</t>
+  </si>
+  <si>
+    <t>DOESCSP020U99</t>
+  </si>
+  <si>
+    <t>PE020W2K</t>
+  </si>
+  <si>
+    <t>PE0246BC</t>
+  </si>
+  <si>
+    <t>PE020WH4</t>
+  </si>
+  <si>
+    <t>PE020VLQ</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <charset val="1"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +510,51 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
+  <cellXfs count="6">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -211,6 +633,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -245,6 +668,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -268,7 +692,6 @@
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
                 <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
@@ -279,31 +702,31 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
+                <a:tint val="51000"/>
                 <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="80000">
               <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
+                <a:tint val="15000"/>
                 <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
+                <a:tint val="94000"/>
                 <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
         <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
+              <a:shade val="9500"/>
               <a:satMod val="105000"/>
             </a:schemeClr>
           </a:solidFill>
@@ -325,7 +748,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -383,7 +806,7 @@
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
+                <a:tint val="20000"/>
                 <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
@@ -396,13 +819,12 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
                 <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
+                <a:tint val="80000"/>
                 <a:satMod val="200000"/>
               </a:schemeClr>
             </a:gs>
@@ -420,104 +842,1719 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
+    <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H65"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>NomeDispositivo</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>ModeloDispositivo</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>ProcessadorUsado</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>MemoriaTotal</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>ArmazenamentoInterno</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>ObservacaoDispositivo</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>SerialDispositivo</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>TipoDispositivo</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>DCCTRSP0245MR</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>M93p Desktop (ThinkCentre) - Type 10AA</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Intel(R) Core(TM) i5-4590T CPU @ 2.00GHz</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>8 GB</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>223 GB</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>Não possui</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>PE0245MR</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>Desktop</t>
-        </is>
+    <row r="1" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F4" t="s">
+        <v>31</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F5" t="s">
+        <v>31</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E6" t="s">
+        <v>31</v>
+      </c>
+      <c r="F6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" t="s">
+        <v>31</v>
+      </c>
+      <c r="E8" t="s">
+        <v>31</v>
+      </c>
+      <c r="F8" t="s">
+        <v>31</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" t="s">
+        <v>31</v>
+      </c>
+      <c r="E9" t="s">
+        <v>31</v>
+      </c>
+      <c r="F9" t="s">
+        <v>31</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" t="s">
+        <v>31</v>
+      </c>
+      <c r="E10" t="s">
+        <v>31</v>
+      </c>
+      <c r="F10" t="s">
+        <v>31</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" t="s">
+        <v>31</v>
+      </c>
+      <c r="E11" t="s">
+        <v>31</v>
+      </c>
+      <c r="F11" t="s">
+        <v>31</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12" t="s">
+        <v>31</v>
+      </c>
+      <c r="E12" t="s">
+        <v>31</v>
+      </c>
+      <c r="F12" t="s">
+        <v>31</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D13" t="s">
+        <v>31</v>
+      </c>
+      <c r="E13" t="s">
+        <v>31</v>
+      </c>
+      <c r="F13" t="s">
+        <v>31</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>31</v>
+      </c>
+      <c r="B14" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14" t="s">
+        <v>31</v>
+      </c>
+      <c r="D14" t="s">
+        <v>31</v>
+      </c>
+      <c r="E14" t="s">
+        <v>31</v>
+      </c>
+      <c r="F14" t="s">
+        <v>31</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" t="s">
+        <v>31</v>
+      </c>
+      <c r="D15" t="s">
+        <v>31</v>
+      </c>
+      <c r="E15" t="s">
+        <v>31</v>
+      </c>
+      <c r="F15" t="s">
+        <v>31</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>31</v>
+      </c>
+      <c r="B16" t="s">
+        <v>32</v>
+      </c>
+      <c r="C16" t="s">
+        <v>31</v>
+      </c>
+      <c r="D16" t="s">
+        <v>31</v>
+      </c>
+      <c r="E16" t="s">
+        <v>31</v>
+      </c>
+      <c r="F16" t="s">
+        <v>31</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>31</v>
+      </c>
+      <c r="B17" t="s">
+        <v>32</v>
+      </c>
+      <c r="C17" t="s">
+        <v>31</v>
+      </c>
+      <c r="D17" t="s">
+        <v>31</v>
+      </c>
+      <c r="E17" t="s">
+        <v>31</v>
+      </c>
+      <c r="F17" t="s">
+        <v>31</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="H17" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>31</v>
+      </c>
+      <c r="B18" t="s">
+        <v>32</v>
+      </c>
+      <c r="C18" t="s">
+        <v>31</v>
+      </c>
+      <c r="D18" t="s">
+        <v>31</v>
+      </c>
+      <c r="E18" t="s">
+        <v>31</v>
+      </c>
+      <c r="F18" t="s">
+        <v>31</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="H18" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>31</v>
+      </c>
+      <c r="B19" t="s">
+        <v>32</v>
+      </c>
+      <c r="C19" t="s">
+        <v>31</v>
+      </c>
+      <c r="D19" t="s">
+        <v>31</v>
+      </c>
+      <c r="E19" t="s">
+        <v>31</v>
+      </c>
+      <c r="F19" t="s">
+        <v>31</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="H19" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>31</v>
+      </c>
+      <c r="B20" t="s">
+        <v>32</v>
+      </c>
+      <c r="C20" t="s">
+        <v>31</v>
+      </c>
+      <c r="D20" t="s">
+        <v>31</v>
+      </c>
+      <c r="E20" t="s">
+        <v>31</v>
+      </c>
+      <c r="F20" t="s">
+        <v>31</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="H20" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>31</v>
+      </c>
+      <c r="B21" t="s">
+        <v>32</v>
+      </c>
+      <c r="C21" t="s">
+        <v>31</v>
+      </c>
+      <c r="D21" t="s">
+        <v>31</v>
+      </c>
+      <c r="E21" t="s">
+        <v>31</v>
+      </c>
+      <c r="F21" t="s">
+        <v>31</v>
+      </c>
+      <c r="G21" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H21" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>31</v>
+      </c>
+      <c r="B22" t="s">
+        <v>32</v>
+      </c>
+      <c r="C22" t="s">
+        <v>31</v>
+      </c>
+      <c r="D22" t="s">
+        <v>31</v>
+      </c>
+      <c r="E22" t="s">
+        <v>31</v>
+      </c>
+      <c r="F22" t="s">
+        <v>31</v>
+      </c>
+      <c r="G22" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H22" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>31</v>
+      </c>
+      <c r="B23" t="s">
+        <v>32</v>
+      </c>
+      <c r="C23" t="s">
+        <v>31</v>
+      </c>
+      <c r="D23" t="s">
+        <v>31</v>
+      </c>
+      <c r="E23" t="s">
+        <v>31</v>
+      </c>
+      <c r="F23" t="s">
+        <v>31</v>
+      </c>
+      <c r="G23" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H23" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>33</v>
+      </c>
+      <c r="B24" t="s">
+        <v>34</v>
+      </c>
+      <c r="C24" t="s">
+        <v>35</v>
+      </c>
+      <c r="D24" t="s">
+        <v>36</v>
+      </c>
+      <c r="E24" t="s">
+        <v>37</v>
+      </c>
+      <c r="F24" t="s">
+        <v>38</v>
+      </c>
+      <c r="G24" t="s">
+        <v>39</v>
+      </c>
+      <c r="H24" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>41</v>
+      </c>
+      <c r="B25" t="s">
+        <v>42</v>
+      </c>
+      <c r="C25" t="s">
+        <v>43</v>
+      </c>
+      <c r="D25" t="s">
+        <v>36</v>
+      </c>
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>31</v>
+      </c>
+      <c r="G25" t="s">
+        <v>45</v>
+      </c>
+      <c r="H25" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>46</v>
+      </c>
+      <c r="B26" t="s">
+        <v>42</v>
+      </c>
+      <c r="C26" t="s">
+        <v>43</v>
+      </c>
+      <c r="D26" t="s">
+        <v>36</v>
+      </c>
+      <c r="E26" t="s">
+        <v>37</v>
+      </c>
+      <c r="F26" t="s">
+        <v>31</v>
+      </c>
+      <c r="G26" t="s">
+        <v>47</v>
+      </c>
+      <c r="H26" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>48</v>
+      </c>
+      <c r="B27" t="s">
+        <v>42</v>
+      </c>
+      <c r="C27" t="s">
+        <v>43</v>
+      </c>
+      <c r="D27" t="s">
+        <v>36</v>
+      </c>
+      <c r="E27" t="s">
+        <v>37</v>
+      </c>
+      <c r="F27" t="s">
+        <v>31</v>
+      </c>
+      <c r="G27" t="s">
+        <v>49</v>
+      </c>
+      <c r="H27" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>50</v>
+      </c>
+      <c r="B28" t="s">
+        <v>42</v>
+      </c>
+      <c r="C28" t="s">
+        <v>43</v>
+      </c>
+      <c r="D28" t="s">
+        <v>36</v>
+      </c>
+      <c r="E28" t="s">
+        <v>37</v>
+      </c>
+      <c r="F28" t="s">
+        <v>31</v>
+      </c>
+      <c r="G28" t="s">
+        <v>51</v>
+      </c>
+      <c r="H28" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>52</v>
+      </c>
+      <c r="B29" t="s">
+        <v>42</v>
+      </c>
+      <c r="C29" t="s">
+        <v>43</v>
+      </c>
+      <c r="D29" t="s">
+        <v>36</v>
+      </c>
+      <c r="E29" t="s">
+        <v>37</v>
+      </c>
+      <c r="F29" t="s">
+        <v>53</v>
+      </c>
+      <c r="G29" t="s">
+        <v>54</v>
+      </c>
+      <c r="H29" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>55</v>
+      </c>
+      <c r="B30" t="s">
+        <v>42</v>
+      </c>
+      <c r="C30" t="s">
+        <v>43</v>
+      </c>
+      <c r="D30" t="s">
+        <v>36</v>
+      </c>
+      <c r="E30" t="s">
+        <v>37</v>
+      </c>
+      <c r="F30" t="s">
+        <v>53</v>
+      </c>
+      <c r="G30" t="s">
+        <v>56</v>
+      </c>
+      <c r="H30" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>57</v>
+      </c>
+      <c r="B31" t="s">
+        <v>42</v>
+      </c>
+      <c r="C31" t="s">
+        <v>43</v>
+      </c>
+      <c r="D31" t="s">
+        <v>36</v>
+      </c>
+      <c r="E31" t="s">
+        <v>37</v>
+      </c>
+      <c r="F31" t="s">
+        <v>58</v>
+      </c>
+      <c r="G31" t="s">
+        <v>59</v>
+      </c>
+      <c r="H31" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>60</v>
+      </c>
+      <c r="B32" t="s">
+        <v>61</v>
+      </c>
+      <c r="C32" t="s">
+        <v>62</v>
+      </c>
+      <c r="D32" t="s">
+        <v>36</v>
+      </c>
+      <c r="E32" t="s">
+        <v>37</v>
+      </c>
+      <c r="F32" t="s">
+        <v>58</v>
+      </c>
+      <c r="G32" t="s">
+        <v>63</v>
+      </c>
+      <c r="H32" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>64</v>
+      </c>
+      <c r="B33" t="s">
+        <v>61</v>
+      </c>
+      <c r="C33" t="s">
+        <v>62</v>
+      </c>
+      <c r="D33" t="s">
+        <v>36</v>
+      </c>
+      <c r="E33" t="s">
+        <v>65</v>
+      </c>
+      <c r="F33" t="s">
+        <v>66</v>
+      </c>
+      <c r="G33" t="s">
+        <v>67</v>
+      </c>
+      <c r="H33" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>68</v>
+      </c>
+      <c r="B34" t="s">
+        <v>61</v>
+      </c>
+      <c r="C34" t="s">
+        <v>62</v>
+      </c>
+      <c r="D34" t="s">
+        <v>36</v>
+      </c>
+      <c r="E34" t="s">
+        <v>65</v>
+      </c>
+      <c r="F34" t="s">
+        <v>31</v>
+      </c>
+      <c r="G34" t="s">
+        <v>69</v>
+      </c>
+      <c r="H34" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>70</v>
+      </c>
+      <c r="B35" t="s">
+        <v>71</v>
+      </c>
+      <c r="C35" t="s">
+        <v>72</v>
+      </c>
+      <c r="D35" t="s">
+        <v>36</v>
+      </c>
+      <c r="E35" t="s">
+        <v>37</v>
+      </c>
+      <c r="F35" t="s">
+        <v>73</v>
+      </c>
+      <c r="G35" t="s">
+        <v>74</v>
+      </c>
+      <c r="H35" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>75</v>
+      </c>
+      <c r="B36" t="s">
+        <v>76</v>
+      </c>
+      <c r="C36" t="s">
+        <v>77</v>
+      </c>
+      <c r="D36" t="s">
+        <v>36</v>
+      </c>
+      <c r="E36" t="s">
+        <v>37</v>
+      </c>
+      <c r="F36" t="s">
+        <v>78</v>
+      </c>
+      <c r="G36" t="s">
+        <v>79</v>
+      </c>
+      <c r="H36" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>80</v>
+      </c>
+      <c r="B37" t="s">
+        <v>81</v>
+      </c>
+      <c r="C37" t="s">
+        <v>82</v>
+      </c>
+      <c r="D37" t="s">
+        <v>36</v>
+      </c>
+      <c r="E37" t="s">
+        <v>37</v>
+      </c>
+      <c r="F37" t="s">
+        <v>31</v>
+      </c>
+      <c r="G37" t="s">
+        <v>83</v>
+      </c>
+      <c r="H37" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>84</v>
+      </c>
+      <c r="B38" t="s">
+        <v>85</v>
+      </c>
+      <c r="C38" t="s">
+        <v>86</v>
+      </c>
+      <c r="D38" t="s">
+        <v>36</v>
+      </c>
+      <c r="E38" t="s">
+        <v>37</v>
+      </c>
+      <c r="F38" t="s">
+        <v>31</v>
+      </c>
+      <c r="G38" t="s">
+        <v>87</v>
+      </c>
+      <c r="H38" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>88</v>
+      </c>
+      <c r="B39" t="s">
+        <v>89</v>
+      </c>
+      <c r="C39" t="s">
+        <v>90</v>
+      </c>
+      <c r="D39" t="s">
+        <v>36</v>
+      </c>
+      <c r="E39" t="s">
+        <v>37</v>
+      </c>
+      <c r="F39" t="s">
+        <v>31</v>
+      </c>
+      <c r="G39" t="s">
+        <v>91</v>
+      </c>
+      <c r="H39" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>93</v>
+      </c>
+      <c r="B40" t="s">
+        <v>89</v>
+      </c>
+      <c r="C40" t="s">
+        <v>90</v>
+      </c>
+      <c r="D40" t="s">
+        <v>36</v>
+      </c>
+      <c r="E40" t="s">
+        <v>37</v>
+      </c>
+      <c r="F40" t="s">
+        <v>31</v>
+      </c>
+      <c r="G40" t="s">
+        <v>94</v>
+      </c>
+      <c r="H40" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>95</v>
+      </c>
+      <c r="B41" t="s">
+        <v>96</v>
+      </c>
+      <c r="C41" t="s">
+        <v>97</v>
+      </c>
+      <c r="D41" t="s">
+        <v>36</v>
+      </c>
+      <c r="E41" t="s">
+        <v>37</v>
+      </c>
+      <c r="F41" t="s">
+        <v>31</v>
+      </c>
+      <c r="G41" t="s">
+        <v>98</v>
+      </c>
+      <c r="H41" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>99</v>
+      </c>
+      <c r="B42" t="s">
+        <v>100</v>
+      </c>
+      <c r="C42" t="s">
+        <v>101</v>
+      </c>
+      <c r="D42" t="s">
+        <v>36</v>
+      </c>
+      <c r="E42" t="s">
+        <v>65</v>
+      </c>
+      <c r="F42" t="s">
+        <v>31</v>
+      </c>
+      <c r="G42" t="s">
+        <v>102</v>
+      </c>
+      <c r="H42" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>103</v>
+      </c>
+      <c r="B43" t="s">
+        <v>100</v>
+      </c>
+      <c r="C43" t="s">
+        <v>101</v>
+      </c>
+      <c r="D43" t="s">
+        <v>36</v>
+      </c>
+      <c r="E43" t="s">
+        <v>65</v>
+      </c>
+      <c r="F43" t="s">
+        <v>31</v>
+      </c>
+      <c r="G43" t="s">
+        <v>104</v>
+      </c>
+      <c r="H43" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>105</v>
+      </c>
+      <c r="B44" t="s">
+        <v>96</v>
+      </c>
+      <c r="C44" t="s">
+        <v>97</v>
+      </c>
+      <c r="D44" t="s">
+        <v>36</v>
+      </c>
+      <c r="E44" t="s">
+        <v>37</v>
+      </c>
+      <c r="F44" t="s">
+        <v>31</v>
+      </c>
+      <c r="G44" t="s">
+        <v>106</v>
+      </c>
+      <c r="H44" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>107</v>
+      </c>
+      <c r="B45" t="s">
+        <v>96</v>
+      </c>
+      <c r="C45" t="s">
+        <v>97</v>
+      </c>
+      <c r="D45" t="s">
+        <v>36</v>
+      </c>
+      <c r="E45" t="s">
+        <v>37</v>
+      </c>
+      <c r="F45" t="s">
+        <v>31</v>
+      </c>
+      <c r="G45" t="s">
+        <v>108</v>
+      </c>
+      <c r="H45" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>109</v>
+      </c>
+      <c r="B46" t="s">
+        <v>96</v>
+      </c>
+      <c r="C46" t="s">
+        <v>97</v>
+      </c>
+      <c r="D46" t="s">
+        <v>36</v>
+      </c>
+      <c r="E46" t="s">
+        <v>37</v>
+      </c>
+      <c r="F46" t="s">
+        <v>31</v>
+      </c>
+      <c r="G46" t="s">
+        <v>110</v>
+      </c>
+      <c r="H46" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>111</v>
+      </c>
+      <c r="B47" t="s">
+        <v>96</v>
+      </c>
+      <c r="C47" t="s">
+        <v>97</v>
+      </c>
+      <c r="D47" t="s">
+        <v>36</v>
+      </c>
+      <c r="E47" t="s">
+        <v>37</v>
+      </c>
+      <c r="F47" t="s">
+        <v>31</v>
+      </c>
+      <c r="G47" t="s">
+        <v>112</v>
+      </c>
+      <c r="H47" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>113</v>
+      </c>
+      <c r="B48" t="s">
+        <v>96</v>
+      </c>
+      <c r="C48" t="s">
+        <v>97</v>
+      </c>
+      <c r="D48" t="s">
+        <v>36</v>
+      </c>
+      <c r="E48" t="s">
+        <v>44</v>
+      </c>
+      <c r="F48" t="s">
+        <v>31</v>
+      </c>
+      <c r="G48" t="s">
+        <v>114</v>
+      </c>
+      <c r="H48" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>115</v>
+      </c>
+      <c r="B49" t="s">
+        <v>96</v>
+      </c>
+      <c r="C49" t="s">
+        <v>97</v>
+      </c>
+      <c r="D49" t="s">
+        <v>36</v>
+      </c>
+      <c r="E49" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" t="s">
+        <v>31</v>
+      </c>
+      <c r="G49" t="s">
+        <v>116</v>
+      </c>
+      <c r="H49" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>117</v>
+      </c>
+      <c r="B50" t="s">
+        <v>96</v>
+      </c>
+      <c r="C50" t="s">
+        <v>97</v>
+      </c>
+      <c r="D50" t="s">
+        <v>36</v>
+      </c>
+      <c r="E50" t="s">
+        <v>37</v>
+      </c>
+      <c r="F50" t="s">
+        <v>31</v>
+      </c>
+      <c r="G50" t="s">
+        <v>118</v>
+      </c>
+      <c r="H50" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>119</v>
+      </c>
+      <c r="B51" t="s">
+        <v>96</v>
+      </c>
+      <c r="C51" t="s">
+        <v>97</v>
+      </c>
+      <c r="D51" t="s">
+        <v>36</v>
+      </c>
+      <c r="E51" t="s">
+        <v>37</v>
+      </c>
+      <c r="F51" t="s">
+        <v>31</v>
+      </c>
+      <c r="G51" t="s">
+        <v>120</v>
+      </c>
+      <c r="H51" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>121</v>
+      </c>
+      <c r="B52" t="s">
+        <v>96</v>
+      </c>
+      <c r="C52" t="s">
+        <v>97</v>
+      </c>
+      <c r="D52" t="s">
+        <v>36</v>
+      </c>
+      <c r="E52" t="s">
+        <v>37</v>
+      </c>
+      <c r="F52" t="s">
+        <v>31</v>
+      </c>
+      <c r="G52" t="s">
+        <v>122</v>
+      </c>
+      <c r="H52" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>123</v>
+      </c>
+      <c r="B53" t="s">
+        <v>96</v>
+      </c>
+      <c r="C53" t="s">
+        <v>97</v>
+      </c>
+      <c r="D53" t="s">
+        <v>36</v>
+      </c>
+      <c r="E53" t="s">
+        <v>37</v>
+      </c>
+      <c r="F53" t="s">
+        <v>31</v>
+      </c>
+      <c r="G53" t="s">
+        <v>124</v>
+      </c>
+      <c r="H53" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>125</v>
+      </c>
+      <c r="B54" t="s">
+        <v>96</v>
+      </c>
+      <c r="C54" t="s">
+        <v>97</v>
+      </c>
+      <c r="D54" t="s">
+        <v>36</v>
+      </c>
+      <c r="E54" t="s">
+        <v>37</v>
+      </c>
+      <c r="F54" t="s">
+        <v>31</v>
+      </c>
+      <c r="G54" t="s">
+        <v>126</v>
+      </c>
+      <c r="H54" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>127</v>
+      </c>
+      <c r="B55" t="s">
+        <v>96</v>
+      </c>
+      <c r="C55" t="s">
+        <v>97</v>
+      </c>
+      <c r="D55" t="s">
+        <v>36</v>
+      </c>
+      <c r="E55" t="s">
+        <v>37</v>
+      </c>
+      <c r="F55" t="s">
+        <v>31</v>
+      </c>
+      <c r="G55" t="s">
+        <v>128</v>
+      </c>
+      <c r="H55" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>129</v>
+      </c>
+      <c r="B56" t="s">
+        <v>96</v>
+      </c>
+      <c r="C56" t="s">
+        <v>97</v>
+      </c>
+      <c r="D56" t="s">
+        <v>36</v>
+      </c>
+      <c r="E56" t="s">
+        <v>37</v>
+      </c>
+      <c r="F56" t="s">
+        <v>31</v>
+      </c>
+      <c r="G56" t="s">
+        <v>130</v>
+      </c>
+      <c r="H56" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>131</v>
+      </c>
+      <c r="B57" t="s">
+        <v>96</v>
+      </c>
+      <c r="C57" t="s">
+        <v>97</v>
+      </c>
+      <c r="D57" t="s">
+        <v>36</v>
+      </c>
+      <c r="E57" t="s">
+        <v>37</v>
+      </c>
+      <c r="F57" t="s">
+        <v>31</v>
+      </c>
+      <c r="G57" t="s">
+        <v>132</v>
+      </c>
+      <c r="H57" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>133</v>
+      </c>
+      <c r="B58" t="s">
+        <v>96</v>
+      </c>
+      <c r="C58" t="s">
+        <v>97</v>
+      </c>
+      <c r="D58" t="s">
+        <v>36</v>
+      </c>
+      <c r="E58" t="s">
+        <v>37</v>
+      </c>
+      <c r="F58" t="s">
+        <v>31</v>
+      </c>
+      <c r="G58" t="s">
+        <v>134</v>
+      </c>
+      <c r="H58" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>135</v>
+      </c>
+      <c r="B59" t="s">
+        <v>96</v>
+      </c>
+      <c r="C59" t="s">
+        <v>97</v>
+      </c>
+      <c r="D59" t="s">
+        <v>36</v>
+      </c>
+      <c r="E59" t="s">
+        <v>37</v>
+      </c>
+      <c r="F59" t="s">
+        <v>31</v>
+      </c>
+      <c r="G59" t="s">
+        <v>136</v>
+      </c>
+      <c r="H59" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>137</v>
+      </c>
+      <c r="B60" t="s">
+        <v>96</v>
+      </c>
+      <c r="C60" t="s">
+        <v>97</v>
+      </c>
+      <c r="D60" t="s">
+        <v>36</v>
+      </c>
+      <c r="E60" t="s">
+        <v>37</v>
+      </c>
+      <c r="F60" t="s">
+        <v>31</v>
+      </c>
+      <c r="G60" t="s">
+        <v>138</v>
+      </c>
+      <c r="H60" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>139</v>
+      </c>
+      <c r="B61" t="s">
+        <v>96</v>
+      </c>
+      <c r="C61" t="s">
+        <v>97</v>
+      </c>
+      <c r="D61" t="s">
+        <v>36</v>
+      </c>
+      <c r="E61" t="s">
+        <v>44</v>
+      </c>
+      <c r="F61" t="s">
+        <v>31</v>
+      </c>
+      <c r="G61" t="s">
+        <v>140</v>
+      </c>
+      <c r="H61" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>141</v>
+      </c>
+      <c r="B62" t="s">
+        <v>96</v>
+      </c>
+      <c r="C62" t="s">
+        <v>97</v>
+      </c>
+      <c r="D62" t="s">
+        <v>36</v>
+      </c>
+      <c r="E62" t="s">
+        <v>37</v>
+      </c>
+      <c r="F62" t="s">
+        <v>31</v>
+      </c>
+      <c r="G62" t="s">
+        <v>142</v>
+      </c>
+      <c r="H62" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>141</v>
+      </c>
+      <c r="B63" t="s">
+        <v>96</v>
+      </c>
+      <c r="C63" t="s">
+        <v>97</v>
+      </c>
+      <c r="D63" t="s">
+        <v>36</v>
+      </c>
+      <c r="E63" t="s">
+        <v>37</v>
+      </c>
+      <c r="F63" t="s">
+        <v>31</v>
+      </c>
+      <c r="G63" t="s">
+        <v>143</v>
+      </c>
+      <c r="H63" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>141</v>
+      </c>
+      <c r="B64" t="s">
+        <v>96</v>
+      </c>
+      <c r="C64" t="s">
+        <v>97</v>
+      </c>
+      <c r="D64" t="s">
+        <v>36</v>
+      </c>
+      <c r="E64" t="s">
+        <v>37</v>
+      </c>
+      <c r="F64" t="s">
+        <v>31</v>
+      </c>
+      <c r="G64" t="s">
+        <v>144</v>
+      </c>
+      <c r="H64" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>141</v>
+      </c>
+      <c r="B65" t="s">
+        <v>96</v>
+      </c>
+      <c r="C65" t="s">
+        <v>97</v>
+      </c>
+      <c r="D65" t="s">
+        <v>36</v>
+      </c>
+      <c r="E65" t="s">
+        <v>37</v>
+      </c>
+      <c r="F65" t="s">
+        <v>31</v>
+      </c>
+      <c r="G65" t="s">
+        <v>145</v>
+      </c>
+      <c r="H65" t="s">
+        <v>92</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/backend/data/Estoque atual.xlsx
+++ b/backend/data/Estoque atual.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H70"/>
+  <dimension ref="A1:H67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3196,7 +3196,7 @@
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
@@ -3238,136 +3238,10 @@
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
-        <is>
-          <t>Mouse</t>
-        </is>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="inlineStr">
-        <is>
-          <t>Não possui</t>
-        </is>
-      </c>
-      <c r="B68" t="inlineStr">
-        <is>
-          <t>Philips</t>
-        </is>
-      </c>
-      <c r="C68" t="inlineStr">
-        <is>
-          <t>Não possui</t>
-        </is>
-      </c>
-      <c r="D68" t="inlineStr">
-        <is>
-          <t>Não possui</t>
-        </is>
-      </c>
-      <c r="E68" t="inlineStr">
-        <is>
-          <t>Não possui</t>
-        </is>
-      </c>
-      <c r="F68" t="inlineStr">
-        <is>
-          <t>Não possui</t>
-        </is>
-      </c>
-      <c r="G68" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>Mouse</t>
-        </is>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="inlineStr">
-        <is>
-          <t>Não possui</t>
-        </is>
-      </c>
-      <c r="B69" t="inlineStr">
-        <is>
-          <t>Philips</t>
-        </is>
-      </c>
-      <c r="C69" t="inlineStr">
-        <is>
-          <t>Não possui</t>
-        </is>
-      </c>
-      <c r="D69" t="inlineStr">
-        <is>
-          <t>Não possui</t>
-        </is>
-      </c>
-      <c r="E69" t="inlineStr">
-        <is>
-          <t>Não possui</t>
-        </is>
-      </c>
-      <c r="F69" t="inlineStr">
-        <is>
-          <t>Não possui</t>
-        </is>
-      </c>
-      <c r="G69" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>Mouse</t>
-        </is>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="inlineStr">
-        <is>
-          <t>Não possui</t>
-        </is>
-      </c>
-      <c r="B70" t="inlineStr">
-        <is>
-          <t>Philips</t>
-        </is>
-      </c>
-      <c r="C70" t="inlineStr">
-        <is>
-          <t>Não possui</t>
-        </is>
-      </c>
-      <c r="D70" t="inlineStr">
-        <is>
-          <t>Não possui</t>
-        </is>
-      </c>
-      <c r="E70" t="inlineStr">
-        <is>
-          <t>Não possui</t>
-        </is>
-      </c>
-      <c r="F70" t="inlineStr">
-        <is>
-          <t>Não possui</t>
-        </is>
-      </c>
-      <c r="G70" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="H70" t="inlineStr">
         <is>
           <t>Mouse</t>
         </is>

--- a/backend/data/Estoque atual.xlsx
+++ b/backend/data/Estoque atual.xlsx
@@ -1,78 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucas.lira\Desktop\GoupJs-main\backend\data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03580FB5-5031-4870-BCD9-ACD08DC57259}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
-  <si>
-    <t>NomeDispositivo</t>
-  </si>
-  <si>
-    <t>ModeloDispositivo</t>
-  </si>
-  <si>
-    <t>ProcessadorUsado</t>
-  </si>
-  <si>
-    <t>MemoriaTotal</t>
-  </si>
-  <si>
-    <t>ArmazenamentoInterno</t>
-  </si>
-  <si>
-    <t>ObservacaoDispositivo</t>
-  </si>
-  <si>
-    <t>SerialDispositivo</t>
-  </si>
-  <si>
-    <t>TipoDispositivo</t>
-  </si>
-  <si>
-    <t>Última Atualização</t>
-  </si>
-  <si>
-    <t>Usuário</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -87,43 +46,93 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -411,46 +420,290 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD41"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>NomeDispositivo</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>ModeloDispositivo</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>ProcessadorUsado</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>MemoriaTotal</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>ArmazenamentoInterno</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>ObservacaoDispositivo</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>SerialDispositivo</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>TipoDispositivo</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Última Atualização</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Usuário</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>DCFLTSP020W6C</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>M93p Desktop (ThinkCentre) - Type 10AA</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Intel(R) Core(TM) i5-4590T CPU @ 2.00GHz</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>8 GB</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>223 GB</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Não possui</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>PE020W6C</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Desktop</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>DCPROSP020UCG</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>M93p Desktop (ThinkCentre) - Type 10AA</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Intel(R) Core(TM) i5-4590T CPU @ 2.00GHz</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>8 GB</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>223 GB</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Não possui</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>PE020UCG</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Desktop</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>DOCTBCAM020UCY</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>M93 Desktop (ThinkCentre) - Type 10A4</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Intel(R) Core(TM) i5-4590T CPU @ 2.00GHz</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>8 GB</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>223 GB</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Não possui</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>PE0125F7</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Desktop</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>DOCTBCAM020UE3</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>M93p Desktop (ThinkCentre) - Type 10AA</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Intel(R) Core(TM) i5-4590T CPU @ 2.00GHz</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>8 GB</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>223 GB</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Não possui</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>PE020UE3</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Desktop</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>DOCTBCAM020UEL</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>M93p Desktop (ThinkCentre) - Type 10AA</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Intel(R) Core(TM) i5-4590T CPU @ 2.00GHz</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>8 GB</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>223 GB</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Não possui</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>PE020UEL</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Desktop</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/backend/data/Estoque atual.xlsx
+++ b/backend/data/Estoque atual.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucas.lira\Desktop\GoupJs\backend\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D584A51-2A42-4A5D-86D3-C84EFEAD5080}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet r:id="rId1" sheetId="1" name="Sheet1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="893" uniqueCount="175">
   <si>
     <t>NomeDispositivo</t>
   </si>
@@ -46,7 +52,7 @@
     <t>Usuário</t>
   </si>
   <si>
-    <t>DCCTRSP0245MR</t>
+    <t>DOFISP020V0R</t>
   </si>
   <si>
     <t>M93p Desktop (ThinkCentre) - Type 10AA</t>
@@ -61,20 +67,490 @@
     <t>223 GB</t>
   </si>
   <si>
-    <t>Testando Função de Pesquisa</t>
-  </si>
-  <si>
-    <t>PE0245MR</t>
+    <t>Não possui</t>
+  </si>
+  <si>
+    <t>PE020V0R</t>
   </si>
   <si>
     <t>Desktop</t>
+  </si>
+  <si>
+    <t>DOFISP020TZC</t>
+  </si>
+  <si>
+    <t>PE020TZC</t>
+  </si>
+  <si>
+    <t>DOFISPETY571</t>
+  </si>
+  <si>
+    <t>M92p Desktop (ThinkCentre) - Type 3238</t>
+  </si>
+  <si>
+    <t>Intel(R) Core(TM) i5-3470T CPU @ 2.90GHz</t>
+  </si>
+  <si>
+    <t>PETY571</t>
+  </si>
+  <si>
+    <t>DOCTBSP020UCT</t>
+  </si>
+  <si>
+    <t>PE020UCT</t>
+  </si>
+  <si>
+    <t>DOFPSP0246BJ</t>
+  </si>
+  <si>
+    <t>PE0246BJ</t>
+  </si>
+  <si>
+    <t>DOCTBSP020WJ9</t>
+  </si>
+  <si>
+    <t>PE020WJ9</t>
+  </si>
+  <si>
+    <t>DOFISP020UBR</t>
+  </si>
+  <si>
+    <t>PE020UBR</t>
+  </si>
+  <si>
+    <t>DOFISP020W0T</t>
+  </si>
+  <si>
+    <t>PE020W0T</t>
+  </si>
+  <si>
+    <t>DOFISP020UEE</t>
+  </si>
+  <si>
+    <t>16 GB</t>
+  </si>
+  <si>
+    <t>PE020UEE</t>
+  </si>
+  <si>
+    <t>DOFISPE020WGZ</t>
+  </si>
+  <si>
+    <t>PE020WGZ</t>
+  </si>
+  <si>
+    <t>DOFISPE020WDF</t>
+  </si>
+  <si>
+    <t>PE020WDF</t>
+  </si>
+  <si>
+    <t>ESTOQUE023Z4G</t>
+  </si>
+  <si>
+    <t>PE023Z4G</t>
+  </si>
+  <si>
+    <t>ESTOQUE020TYW</t>
+  </si>
+  <si>
+    <t>PE020TYW</t>
+  </si>
+  <si>
+    <t>ESTOQUE020VXE</t>
+  </si>
+  <si>
+    <t>PE020VXE</t>
+  </si>
+  <si>
+    <t>ESTOQUE020VQ8</t>
+  </si>
+  <si>
+    <t>465 GB</t>
+  </si>
+  <si>
+    <t>Displayport Reparado</t>
+  </si>
+  <si>
+    <t>PE020VQ8</t>
+  </si>
+  <si>
+    <t>DOFPCUR020VXM</t>
+  </si>
+  <si>
+    <t>PE020VXM</t>
+  </si>
+  <si>
+    <t>DOFICAM0246A4</t>
+  </si>
+  <si>
+    <t>PE0246A4</t>
+  </si>
+  <si>
+    <t>DOFICUR020WJD</t>
+  </si>
+  <si>
+    <t>PE020WJD</t>
+  </si>
+  <si>
+    <t>DOFPCAM020VR3</t>
+  </si>
+  <si>
+    <t>PE020VR3</t>
+  </si>
+  <si>
+    <t>DOESCSP020W47</t>
+  </si>
+  <si>
+    <t>PE020WJL</t>
+  </si>
+  <si>
+    <t>ESTOQUE020VEA</t>
+  </si>
+  <si>
+    <t>PE020VEA</t>
+  </si>
+  <si>
+    <t>DOCTBSP020WE8</t>
+  </si>
+  <si>
+    <t>12 GB</t>
+  </si>
+  <si>
+    <t>PE020WE8</t>
+  </si>
+  <si>
+    <t>ESTOQUE020UEK</t>
+  </si>
+  <si>
+    <t>PE020UEK</t>
+  </si>
+  <si>
+    <t>DOFINSP020TY6</t>
+  </si>
+  <si>
+    <t>PE020TY6</t>
+  </si>
+  <si>
+    <t>DOESCSP020U99</t>
+  </si>
+  <si>
+    <t>PE020W2K</t>
+  </si>
+  <si>
+    <t>DOCTBSP020VL8</t>
+  </si>
+  <si>
+    <t>PE020VL8</t>
+  </si>
+  <si>
+    <t>DOFISP020WJM</t>
+  </si>
+  <si>
+    <t>PE020U9B</t>
+  </si>
+  <si>
+    <t>DOFICUR0246BD</t>
+  </si>
+  <si>
+    <t>PE0246BD</t>
+  </si>
+  <si>
+    <t>DOESCSP0245XV</t>
+  </si>
+  <si>
+    <t>PE0245XV</t>
+  </si>
+  <si>
+    <t>ESTOQUE020W40</t>
+  </si>
+  <si>
+    <t>PE020W40</t>
+  </si>
+  <si>
+    <t>ESTOQUE020VJS</t>
+  </si>
+  <si>
+    <t>PE020VJS</t>
+  </si>
+  <si>
+    <t>ESTOQUE020W47</t>
+  </si>
+  <si>
+    <t>PE020W47</t>
+  </si>
+  <si>
+    <t>ESTOQUE020WF7</t>
+  </si>
+  <si>
+    <t>PE020WF7</t>
+  </si>
+  <si>
+    <t>ESTOQUE020WH4</t>
+  </si>
+  <si>
+    <t>PE020WH4</t>
+  </si>
+  <si>
+    <t>ESTOQUE020TYU</t>
+  </si>
+  <si>
+    <t>PE020TYU</t>
+  </si>
+  <si>
+    <t>ESTOQUE020VD1</t>
+  </si>
+  <si>
+    <t>Displayport NÃO reparado</t>
+  </si>
+  <si>
+    <t>PE020VD1</t>
+  </si>
+  <si>
+    <t>DOFISP020WFE</t>
+  </si>
+  <si>
+    <t>PE020WFE</t>
+  </si>
+  <si>
+    <t>ESTOQUECAM0245T</t>
+  </si>
+  <si>
+    <t>PE0245TD</t>
+  </si>
+  <si>
+    <t>DOFDSP8VXN0L2</t>
+  </si>
+  <si>
+    <t>OptiPlex 3050 (Tiny)</t>
+  </si>
+  <si>
+    <t>Intel(R) Core(TM) i5-7500T CPU @ 2.70GHz</t>
+  </si>
+  <si>
+    <t>8VXN0L2</t>
+  </si>
+  <si>
+    <t>DOFPSP8VTP0L2</t>
+  </si>
+  <si>
+    <t>8VTP0L2</t>
+  </si>
+  <si>
+    <t>DOCTBSP8WXM0L2</t>
+  </si>
+  <si>
+    <t>8WXM0L2</t>
+  </si>
+  <si>
+    <t>DOFISP3BCPBS2</t>
+  </si>
+  <si>
+    <t>Vostro 3470</t>
+  </si>
+  <si>
+    <t>Intel(R) Core(TM) i5-8400 CPU @ 2.80GHz</t>
+  </si>
+  <si>
+    <t>3BCPBS2</t>
+  </si>
+  <si>
+    <t>ESTOQUE03CJYH</t>
+  </si>
+  <si>
+    <t>V520s Desktop (Lenovo) - Type 10NN</t>
+  </si>
+  <si>
+    <t>Intel(R) Core(TM) i5-7400 CPU @ 3.00GHz</t>
+  </si>
+  <si>
+    <t>PE03CJYH</t>
+  </si>
+  <si>
+    <t>DCPACSP3KKSBS2</t>
+  </si>
+  <si>
+    <t>3KKSBS2</t>
+  </si>
+  <si>
+    <t>DOFISPDYW2012</t>
+  </si>
+  <si>
+    <t>OptiPlex 3020</t>
+  </si>
+  <si>
+    <t>Intel(R) Core(TM) i5-4570 CPU @ 3.20GHz</t>
+  </si>
+  <si>
+    <t>DYW2012</t>
+  </si>
+  <si>
+    <t>DOFISPJJT5012</t>
+  </si>
+  <si>
+    <t>Optiplex 3020</t>
+  </si>
+  <si>
+    <t>JJT5012</t>
+  </si>
+  <si>
+    <t>DOCTBCAM90ZZZ02</t>
+  </si>
+  <si>
+    <t>4 GB</t>
+  </si>
+  <si>
+    <t>90ZZZ02</t>
+  </si>
+  <si>
+    <t>DOESCSP2ZW2012</t>
+  </si>
+  <si>
+    <t>2ZW2012</t>
+  </si>
+  <si>
+    <t>Armário</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>Monitor</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>Chão</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t>Displayport</t>
+  </si>
+  <si>
+    <t>Adaptador</t>
+  </si>
+  <si>
+    <t>LG</t>
+  </si>
+  <si>
+    <t>AOC</t>
+  </si>
+  <si>
+    <t>Dell</t>
+  </si>
+  <si>
+    <t>Lenovo</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -84,10 +560,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -108,16 +583,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF000000"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color rgb="FF000000"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color rgb="FF000000"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF000000"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -125,26 +600,23 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" builtinId="0" name="Normal"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -155,10 +627,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -196,71 +668,69 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Times New Roman" script="Arab"/>
-        <a:font typeface="Times New Roman" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="MoolBoran" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Times New Roman" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Arial" script="Arab"/>
-        <a:font typeface="Arial" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="DaunPenh" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Arial" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -284,53 +754,54 @@
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
                 <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="51000"/>
+                <a:shade val="51000"/>
                 <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="80000">
               <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
+                <a:shade val="93000"/>
                 <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="94000"/>
+                <a:shade val="94000"/>
                 <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
-              <a:shade val="9500"/>
+              <a:shade val="95000"/>
               <a:satMod val="105000"/>
             </a:schemeClr>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -340,7 +811,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -349,7 +820,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -358,7 +829,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -366,10 +837,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot rev="0" lon="0" lat="0"/>
+              <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
-              <a:rot rev="1200000" lon="0" lat="0"/>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -398,7 +869,7 @@
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="20000"/>
+                <a:shade val="20000"/>
                 <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
@@ -411,12 +882,13 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
                 <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
+                <a:shade val="30000"/>
                 <a:satMod val="200000"/>
               </a:schemeClr>
             </a:gs>
@@ -434,29 +906,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="A1:J2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:J115"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView tabSelected="1" topLeftCell="A80" workbookViewId="0">
+      <selection activeCell="B87" sqref="B87:B115"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="38.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="20.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -488,35 +957,2971 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G2" s="2" t="s">
+      <c r="D2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" t="s">
         <v>16</v>
       </c>
-      <c r="H2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
+      <c r="H2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" t="s">
+        <v>25</v>
+      </c>
+      <c r="H5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6" t="s">
+        <v>27</v>
+      </c>
+      <c r="H6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" t="s">
+        <v>15</v>
+      </c>
+      <c r="G8" t="s">
+        <v>31</v>
+      </c>
+      <c r="H8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9" t="s">
+        <v>33</v>
+      </c>
+      <c r="H9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" t="s">
+        <v>35</v>
+      </c>
+      <c r="E10" t="s">
+        <v>14</v>
+      </c>
+      <c r="F10" t="s">
+        <v>15</v>
+      </c>
+      <c r="G10" t="s">
+        <v>36</v>
+      </c>
+      <c r="H10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>37</v>
+      </c>
+      <c r="B11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G11" t="s">
+        <v>38</v>
+      </c>
+      <c r="H11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>39</v>
+      </c>
+      <c r="B12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F12" t="s">
+        <v>15</v>
+      </c>
+      <c r="G12" t="s">
+        <v>40</v>
+      </c>
+      <c r="H12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>41</v>
+      </c>
+      <c r="B13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13" t="s">
+        <v>14</v>
+      </c>
+      <c r="F13" t="s">
+        <v>15</v>
+      </c>
+      <c r="G13" t="s">
+        <v>42</v>
+      </c>
+      <c r="H13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B14" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>14</v>
+      </c>
+      <c r="F14" t="s">
+        <v>15</v>
+      </c>
+      <c r="G14" t="s">
+        <v>44</v>
+      </c>
+      <c r="H14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>45</v>
+      </c>
+      <c r="B15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" t="s">
+        <v>12</v>
+      </c>
+      <c r="D15" t="s">
+        <v>13</v>
+      </c>
+      <c r="E15" t="s">
+        <v>14</v>
+      </c>
+      <c r="F15" t="s">
+        <v>15</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>47</v>
+      </c>
+      <c r="B16" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" t="s">
+        <v>12</v>
+      </c>
+      <c r="D16" t="s">
+        <v>13</v>
+      </c>
+      <c r="E16" t="s">
+        <v>48</v>
+      </c>
+      <c r="F16" t="s">
+        <v>49</v>
+      </c>
+      <c r="G16" t="s">
+        <v>50</v>
+      </c>
+      <c r="H16" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>51</v>
+      </c>
+      <c r="B17" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17" t="s">
+        <v>12</v>
+      </c>
+      <c r="D17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E17" t="s">
+        <v>14</v>
+      </c>
+      <c r="F17" t="s">
+        <v>49</v>
+      </c>
+      <c r="G17" t="s">
+        <v>52</v>
+      </c>
+      <c r="H17" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>53</v>
+      </c>
+      <c r="B18" t="s">
+        <v>11</v>
+      </c>
+      <c r="C18" t="s">
+        <v>12</v>
+      </c>
+      <c r="D18" t="s">
+        <v>13</v>
+      </c>
+      <c r="E18" t="s">
+        <v>14</v>
+      </c>
+      <c r="F18" t="s">
+        <v>49</v>
+      </c>
+      <c r="G18" t="s">
+        <v>54</v>
+      </c>
+      <c r="H18" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>55</v>
+      </c>
+      <c r="B19" t="s">
+        <v>11</v>
+      </c>
+      <c r="C19" t="s">
+        <v>12</v>
+      </c>
+      <c r="D19" t="s">
+        <v>13</v>
+      </c>
+      <c r="E19" t="s">
+        <v>14</v>
+      </c>
+      <c r="F19" t="s">
+        <v>49</v>
+      </c>
+      <c r="G19" t="s">
+        <v>56</v>
+      </c>
+      <c r="H19" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>57</v>
+      </c>
+      <c r="B20" t="s">
+        <v>11</v>
+      </c>
+      <c r="C20" t="s">
+        <v>12</v>
+      </c>
+      <c r="D20" t="s">
+        <v>13</v>
+      </c>
+      <c r="E20" t="s">
+        <v>14</v>
+      </c>
+      <c r="F20" t="s">
+        <v>49</v>
+      </c>
+      <c r="G20" t="s">
+        <v>58</v>
+      </c>
+      <c r="H20" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>59</v>
+      </c>
+      <c r="B21" t="s">
+        <v>11</v>
+      </c>
+      <c r="C21" t="s">
+        <v>12</v>
+      </c>
+      <c r="D21" t="s">
+        <v>13</v>
+      </c>
+      <c r="E21" t="s">
+        <v>14</v>
+      </c>
+      <c r="F21" t="s">
+        <v>49</v>
+      </c>
+      <c r="G21" t="s">
+        <v>60</v>
+      </c>
+      <c r="H21" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>61</v>
+      </c>
+      <c r="B22" t="s">
+        <v>11</v>
+      </c>
+      <c r="C22" t="s">
+        <v>12</v>
+      </c>
+      <c r="D22" t="s">
+        <v>13</v>
+      </c>
+      <c r="E22" t="s">
+        <v>14</v>
+      </c>
+      <c r="F22" t="s">
+        <v>49</v>
+      </c>
+      <c r="G22" t="s">
+        <v>62</v>
+      </c>
+      <c r="H22" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>63</v>
+      </c>
+      <c r="B23" t="s">
+        <v>11</v>
+      </c>
+      <c r="C23" t="s">
+        <v>12</v>
+      </c>
+      <c r="D23" t="s">
+        <v>64</v>
+      </c>
+      <c r="E23" t="s">
+        <v>14</v>
+      </c>
+      <c r="F23" t="s">
+        <v>49</v>
+      </c>
+      <c r="G23" t="s">
+        <v>65</v>
+      </c>
+      <c r="H23" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>66</v>
+      </c>
+      <c r="B24" t="s">
+        <v>11</v>
+      </c>
+      <c r="C24" t="s">
+        <v>12</v>
+      </c>
+      <c r="D24" t="s">
+        <v>13</v>
+      </c>
+      <c r="E24" t="s">
+        <v>14</v>
+      </c>
+      <c r="F24" t="s">
+        <v>49</v>
+      </c>
+      <c r="G24" t="s">
+        <v>67</v>
+      </c>
+      <c r="H24" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>68</v>
+      </c>
+      <c r="B25" t="s">
+        <v>11</v>
+      </c>
+      <c r="C25" t="s">
+        <v>12</v>
+      </c>
+      <c r="D25" t="s">
+        <v>13</v>
+      </c>
+      <c r="E25" t="s">
+        <v>14</v>
+      </c>
+      <c r="F25" t="s">
+        <v>49</v>
+      </c>
+      <c r="G25" t="s">
+        <v>69</v>
+      </c>
+      <c r="H25" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>70</v>
+      </c>
+      <c r="B26" t="s">
+        <v>11</v>
+      </c>
+      <c r="C26" t="s">
+        <v>12</v>
+      </c>
+      <c r="D26" t="s">
+        <v>13</v>
+      </c>
+      <c r="E26" t="s">
+        <v>14</v>
+      </c>
+      <c r="F26" t="s">
+        <v>49</v>
+      </c>
+      <c r="G26" t="s">
+        <v>71</v>
+      </c>
+      <c r="H26" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>72</v>
+      </c>
+      <c r="B27" t="s">
+        <v>11</v>
+      </c>
+      <c r="C27" t="s">
+        <v>12</v>
+      </c>
+      <c r="D27" t="s">
+        <v>13</v>
+      </c>
+      <c r="E27" t="s">
+        <v>14</v>
+      </c>
+      <c r="F27" t="s">
+        <v>49</v>
+      </c>
+      <c r="G27" t="s">
+        <v>73</v>
+      </c>
+      <c r="H27" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>74</v>
+      </c>
+      <c r="B28" t="s">
+        <v>11</v>
+      </c>
+      <c r="C28" t="s">
+        <v>12</v>
+      </c>
+      <c r="D28" t="s">
+        <v>13</v>
+      </c>
+      <c r="E28" t="s">
+        <v>14</v>
+      </c>
+      <c r="F28" t="s">
+        <v>49</v>
+      </c>
+      <c r="G28" t="s">
+        <v>75</v>
+      </c>
+      <c r="H28" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>76</v>
+      </c>
+      <c r="B29" t="s">
+        <v>11</v>
+      </c>
+      <c r="C29" t="s">
+        <v>12</v>
+      </c>
+      <c r="D29" t="s">
+        <v>13</v>
+      </c>
+      <c r="E29" t="s">
+        <v>14</v>
+      </c>
+      <c r="F29" t="s">
+        <v>49</v>
+      </c>
+      <c r="G29" t="s">
+        <v>77</v>
+      </c>
+      <c r="H29" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>78</v>
+      </c>
+      <c r="B30" t="s">
+        <v>11</v>
+      </c>
+      <c r="C30" t="s">
+        <v>12</v>
+      </c>
+      <c r="D30" t="s">
+        <v>13</v>
+      </c>
+      <c r="E30" t="s">
+        <v>14</v>
+      </c>
+      <c r="F30" t="s">
+        <v>49</v>
+      </c>
+      <c r="G30" t="s">
+        <v>79</v>
+      </c>
+      <c r="H30" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>80</v>
+      </c>
+      <c r="B31" t="s">
+        <v>11</v>
+      </c>
+      <c r="C31" t="s">
+        <v>12</v>
+      </c>
+      <c r="D31" t="s">
+        <v>13</v>
+      </c>
+      <c r="E31" t="s">
+        <v>14</v>
+      </c>
+      <c r="F31" t="s">
+        <v>49</v>
+      </c>
+      <c r="G31" t="s">
+        <v>81</v>
+      </c>
+      <c r="H31" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>82</v>
+      </c>
+      <c r="B32" t="s">
+        <v>11</v>
+      </c>
+      <c r="C32" t="s">
+        <v>12</v>
+      </c>
+      <c r="D32" t="s">
+        <v>13</v>
+      </c>
+      <c r="E32" t="s">
+        <v>14</v>
+      </c>
+      <c r="F32" t="s">
+        <v>49</v>
+      </c>
+      <c r="G32" t="s">
+        <v>83</v>
+      </c>
+      <c r="H32" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>84</v>
+      </c>
+      <c r="B33" t="s">
+        <v>11</v>
+      </c>
+      <c r="C33" t="s">
+        <v>12</v>
+      </c>
+      <c r="D33" t="s">
+        <v>13</v>
+      </c>
+      <c r="E33" t="s">
+        <v>14</v>
+      </c>
+      <c r="F33" t="s">
+        <v>49</v>
+      </c>
+      <c r="G33" t="s">
+        <v>85</v>
+      </c>
+      <c r="H33" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>86</v>
+      </c>
+      <c r="B34" t="s">
+        <v>11</v>
+      </c>
+      <c r="C34" t="s">
+        <v>12</v>
+      </c>
+      <c r="D34" t="s">
+        <v>13</v>
+      </c>
+      <c r="E34" t="s">
+        <v>14</v>
+      </c>
+      <c r="F34" t="s">
+        <v>49</v>
+      </c>
+      <c r="G34" t="s">
+        <v>87</v>
+      </c>
+      <c r="H34" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>88</v>
+      </c>
+      <c r="B35" t="s">
+        <v>11</v>
+      </c>
+      <c r="C35" t="s">
+        <v>12</v>
+      </c>
+      <c r="D35" t="s">
+        <v>13</v>
+      </c>
+      <c r="E35" t="s">
+        <v>14</v>
+      </c>
+      <c r="F35" t="s">
+        <v>49</v>
+      </c>
+      <c r="G35" t="s">
+        <v>89</v>
+      </c>
+      <c r="H35" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>90</v>
+      </c>
+      <c r="B36" t="s">
+        <v>11</v>
+      </c>
+      <c r="C36" t="s">
+        <v>12</v>
+      </c>
+      <c r="D36" t="s">
+        <v>13</v>
+      </c>
+      <c r="E36" t="s">
+        <v>14</v>
+      </c>
+      <c r="F36" t="s">
+        <v>49</v>
+      </c>
+      <c r="G36" t="s">
+        <v>91</v>
+      </c>
+      <c r="H36" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>92</v>
+      </c>
+      <c r="B37" t="s">
+        <v>11</v>
+      </c>
+      <c r="C37" t="s">
+        <v>12</v>
+      </c>
+      <c r="D37" t="s">
+        <v>13</v>
+      </c>
+      <c r="E37" t="s">
+        <v>48</v>
+      </c>
+      <c r="F37" t="s">
+        <v>93</v>
+      </c>
+      <c r="G37" t="s">
+        <v>94</v>
+      </c>
+      <c r="H37" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>95</v>
+      </c>
+      <c r="B38" t="s">
+        <v>11</v>
+      </c>
+      <c r="C38" t="s">
+        <v>12</v>
+      </c>
+      <c r="D38" t="s">
+        <v>13</v>
+      </c>
+      <c r="E38" t="s">
+        <v>14</v>
+      </c>
+      <c r="F38" t="s">
+        <v>93</v>
+      </c>
+      <c r="G38" t="s">
+        <v>96</v>
+      </c>
+      <c r="H38" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>97</v>
+      </c>
+      <c r="B39" t="s">
+        <v>11</v>
+      </c>
+      <c r="C39" t="s">
+        <v>12</v>
+      </c>
+      <c r="D39" t="s">
+        <v>13</v>
+      </c>
+      <c r="E39" t="s">
+        <v>14</v>
+      </c>
+      <c r="F39" t="s">
+        <v>93</v>
+      </c>
+      <c r="G39" t="s">
+        <v>98</v>
+      </c>
+      <c r="H39" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>99</v>
+      </c>
+      <c r="B40" t="s">
+        <v>100</v>
+      </c>
+      <c r="C40" t="s">
+        <v>101</v>
+      </c>
+      <c r="D40" t="s">
+        <v>13</v>
+      </c>
+      <c r="E40" t="s">
+        <v>14</v>
+      </c>
+      <c r="F40" t="s">
+        <v>15</v>
+      </c>
+      <c r="G40" t="s">
+        <v>102</v>
+      </c>
+      <c r="H40" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>103</v>
+      </c>
+      <c r="B41" t="s">
+        <v>100</v>
+      </c>
+      <c r="C41" t="s">
+        <v>101</v>
+      </c>
+      <c r="D41" t="s">
+        <v>13</v>
+      </c>
+      <c r="E41" t="s">
+        <v>14</v>
+      </c>
+      <c r="F41" t="s">
+        <v>15</v>
+      </c>
+      <c r="G41" t="s">
+        <v>104</v>
+      </c>
+      <c r="H41" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>105</v>
+      </c>
+      <c r="B42" t="s">
+        <v>100</v>
+      </c>
+      <c r="C42" t="s">
+        <v>101</v>
+      </c>
+      <c r="D42" t="s">
+        <v>13</v>
+      </c>
+      <c r="E42" t="s">
+        <v>14</v>
+      </c>
+      <c r="F42" t="s">
+        <v>15</v>
+      </c>
+      <c r="G42" t="s">
+        <v>106</v>
+      </c>
+      <c r="H42" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>107</v>
+      </c>
+      <c r="B43" t="s">
+        <v>108</v>
+      </c>
+      <c r="C43" t="s">
+        <v>109</v>
+      </c>
+      <c r="D43" t="s">
+        <v>13</v>
+      </c>
+      <c r="E43" t="s">
+        <v>14</v>
+      </c>
+      <c r="F43" t="s">
+        <v>15</v>
+      </c>
+      <c r="G43" t="s">
+        <v>110</v>
+      </c>
+      <c r="H43" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>111</v>
+      </c>
+      <c r="B44" t="s">
+        <v>112</v>
+      </c>
+      <c r="C44" t="s">
+        <v>113</v>
+      </c>
+      <c r="D44" t="s">
+        <v>13</v>
+      </c>
+      <c r="E44" t="s">
+        <v>14</v>
+      </c>
+      <c r="F44" t="s">
+        <v>15</v>
+      </c>
+      <c r="G44" t="s">
+        <v>114</v>
+      </c>
+      <c r="H44" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>115</v>
+      </c>
+      <c r="B45" t="s">
+        <v>108</v>
+      </c>
+      <c r="C45" t="s">
+        <v>109</v>
+      </c>
+      <c r="D45" t="s">
+        <v>13</v>
+      </c>
+      <c r="E45" t="s">
+        <v>14</v>
+      </c>
+      <c r="F45" t="s">
+        <v>15</v>
+      </c>
+      <c r="G45" t="s">
+        <v>116</v>
+      </c>
+      <c r="H45" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>117</v>
+      </c>
+      <c r="B46" t="s">
+        <v>118</v>
+      </c>
+      <c r="C46" t="s">
+        <v>119</v>
+      </c>
+      <c r="D46" t="s">
+        <v>13</v>
+      </c>
+      <c r="E46" t="s">
+        <v>14</v>
+      </c>
+      <c r="F46" t="s">
+        <v>15</v>
+      </c>
+      <c r="G46" t="s">
+        <v>120</v>
+      </c>
+      <c r="H46" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>121</v>
+      </c>
+      <c r="B47" t="s">
+        <v>122</v>
+      </c>
+      <c r="C47" t="s">
+        <v>119</v>
+      </c>
+      <c r="D47" t="s">
+        <v>13</v>
+      </c>
+      <c r="E47" t="s">
+        <v>14</v>
+      </c>
+      <c r="F47" t="s">
+        <v>15</v>
+      </c>
+      <c r="G47" t="s">
+        <v>123</v>
+      </c>
+      <c r="H47" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>124</v>
+      </c>
+      <c r="B48" t="s">
+        <v>118</v>
+      </c>
+      <c r="C48" t="s">
+        <v>119</v>
+      </c>
+      <c r="D48" t="s">
+        <v>125</v>
+      </c>
+      <c r="E48" t="s">
+        <v>14</v>
+      </c>
+      <c r="F48" t="s">
+        <v>15</v>
+      </c>
+      <c r="G48" t="s">
+        <v>126</v>
+      </c>
+      <c r="H48" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>127</v>
+      </c>
+      <c r="B49" t="s">
+        <v>122</v>
+      </c>
+      <c r="C49" t="s">
+        <v>119</v>
+      </c>
+      <c r="D49" t="s">
+        <v>13</v>
+      </c>
+      <c r="E49" t="s">
+        <v>14</v>
+      </c>
+      <c r="F49" t="s">
+        <v>15</v>
+      </c>
+      <c r="G49" t="s">
+        <v>128</v>
+      </c>
+      <c r="H49" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>15</v>
+      </c>
+      <c r="B50" t="s">
+        <v>171</v>
+      </c>
+      <c r="C50" t="s">
+        <v>15</v>
+      </c>
+      <c r="D50" t="s">
+        <v>15</v>
+      </c>
+      <c r="E50" t="s">
+        <v>15</v>
+      </c>
+      <c r="F50" t="s">
+        <v>129</v>
+      </c>
+      <c r="G50" t="s">
+        <v>130</v>
+      </c>
+      <c r="H50" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>15</v>
+      </c>
+      <c r="B51" t="s">
+        <v>171</v>
+      </c>
+      <c r="C51" t="s">
+        <v>15</v>
+      </c>
+      <c r="D51" t="s">
+        <v>15</v>
+      </c>
+      <c r="E51" t="s">
+        <v>15</v>
+      </c>
+      <c r="F51" t="s">
+        <v>129</v>
+      </c>
+      <c r="G51" t="s">
+        <v>132</v>
+      </c>
+      <c r="H51" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>15</v>
+      </c>
+      <c r="B52" t="s">
+        <v>171</v>
+      </c>
+      <c r="C52" t="s">
+        <v>15</v>
+      </c>
+      <c r="D52" t="s">
+        <v>15</v>
+      </c>
+      <c r="E52" t="s">
+        <v>15</v>
+      </c>
+      <c r="F52" t="s">
+        <v>129</v>
+      </c>
+      <c r="G52" t="s">
+        <v>133</v>
+      </c>
+      <c r="H52" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>15</v>
+      </c>
+      <c r="B53" t="s">
+        <v>172</v>
+      </c>
+      <c r="C53" t="s">
+        <v>15</v>
+      </c>
+      <c r="D53" t="s">
+        <v>15</v>
+      </c>
+      <c r="E53" t="s">
+        <v>15</v>
+      </c>
+      <c r="F53" t="s">
+        <v>129</v>
+      </c>
+      <c r="G53" t="s">
+        <v>134</v>
+      </c>
+      <c r="H53" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>15</v>
+      </c>
+      <c r="B54" t="s">
+        <v>172</v>
+      </c>
+      <c r="C54" t="s">
+        <v>15</v>
+      </c>
+      <c r="D54" t="s">
+        <v>15</v>
+      </c>
+      <c r="E54" t="s">
+        <v>15</v>
+      </c>
+      <c r="F54" t="s">
+        <v>129</v>
+      </c>
+      <c r="G54" t="s">
+        <v>135</v>
+      </c>
+      <c r="H54" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>15</v>
+      </c>
+      <c r="B55" t="s">
+        <v>172</v>
+      </c>
+      <c r="C55" t="s">
+        <v>15</v>
+      </c>
+      <c r="D55" t="s">
+        <v>15</v>
+      </c>
+      <c r="E55" t="s">
+        <v>15</v>
+      </c>
+      <c r="F55" t="s">
+        <v>129</v>
+      </c>
+      <c r="G55" t="s">
+        <v>136</v>
+      </c>
+      <c r="H55" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>15</v>
+      </c>
+      <c r="B56" t="s">
+        <v>172</v>
+      </c>
+      <c r="C56" t="s">
+        <v>15</v>
+      </c>
+      <c r="D56" t="s">
+        <v>15</v>
+      </c>
+      <c r="E56" t="s">
+        <v>15</v>
+      </c>
+      <c r="F56" t="s">
+        <v>129</v>
+      </c>
+      <c r="G56" t="s">
+        <v>137</v>
+      </c>
+      <c r="H56" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>15</v>
+      </c>
+      <c r="B57" t="s">
+        <v>172</v>
+      </c>
+      <c r="C57" t="s">
+        <v>15</v>
+      </c>
+      <c r="D57" t="s">
+        <v>15</v>
+      </c>
+      <c r="E57" t="s">
+        <v>15</v>
+      </c>
+      <c r="F57" t="s">
+        <v>129</v>
+      </c>
+      <c r="G57" t="s">
+        <v>138</v>
+      </c>
+      <c r="H57" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>15</v>
+      </c>
+      <c r="B58" t="s">
+        <v>172</v>
+      </c>
+      <c r="C58" t="s">
+        <v>15</v>
+      </c>
+      <c r="D58" t="s">
+        <v>15</v>
+      </c>
+      <c r="E58" t="s">
+        <v>15</v>
+      </c>
+      <c r="F58" t="s">
+        <v>129</v>
+      </c>
+      <c r="G58" t="s">
+        <v>139</v>
+      </c>
+      <c r="H58" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>15</v>
+      </c>
+      <c r="B59" t="s">
+        <v>173</v>
+      </c>
+      <c r="C59" t="s">
+        <v>15</v>
+      </c>
+      <c r="D59" t="s">
+        <v>15</v>
+      </c>
+      <c r="E59" t="s">
+        <v>15</v>
+      </c>
+      <c r="F59" t="s">
+        <v>129</v>
+      </c>
+      <c r="G59" t="s">
+        <v>140</v>
+      </c>
+      <c r="H59" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>15</v>
+      </c>
+      <c r="B60" t="s">
+        <v>173</v>
+      </c>
+      <c r="C60" t="s">
+        <v>15</v>
+      </c>
+      <c r="D60" t="s">
+        <v>15</v>
+      </c>
+      <c r="E60" t="s">
+        <v>15</v>
+      </c>
+      <c r="F60" t="s">
+        <v>129</v>
+      </c>
+      <c r="G60" t="s">
+        <v>141</v>
+      </c>
+      <c r="H60" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>15</v>
+      </c>
+      <c r="B61" t="s">
+        <v>173</v>
+      </c>
+      <c r="C61" t="s">
+        <v>15</v>
+      </c>
+      <c r="D61" t="s">
+        <v>15</v>
+      </c>
+      <c r="E61" t="s">
+        <v>15</v>
+      </c>
+      <c r="F61" t="s">
+        <v>129</v>
+      </c>
+      <c r="G61" t="s">
+        <v>142</v>
+      </c>
+      <c r="H61" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>15</v>
+      </c>
+      <c r="B62" t="s">
+        <v>173</v>
+      </c>
+      <c r="C62" t="s">
+        <v>15</v>
+      </c>
+      <c r="D62" t="s">
+        <v>15</v>
+      </c>
+      <c r="E62" t="s">
+        <v>15</v>
+      </c>
+      <c r="F62" t="s">
+        <v>129</v>
+      </c>
+      <c r="G62" t="s">
+        <v>143</v>
+      </c>
+      <c r="H62" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>15</v>
+      </c>
+      <c r="B63" t="s">
+        <v>173</v>
+      </c>
+      <c r="C63" t="s">
+        <v>15</v>
+      </c>
+      <c r="D63" t="s">
+        <v>15</v>
+      </c>
+      <c r="E63" t="s">
+        <v>15</v>
+      </c>
+      <c r="F63" t="s">
+        <v>129</v>
+      </c>
+      <c r="G63" t="s">
+        <v>144</v>
+      </c>
+      <c r="H63" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>15</v>
+      </c>
+      <c r="B64" t="s">
+        <v>173</v>
+      </c>
+      <c r="C64" t="s">
+        <v>15</v>
+      </c>
+      <c r="D64" t="s">
+        <v>15</v>
+      </c>
+      <c r="E64" t="s">
+        <v>15</v>
+      </c>
+      <c r="F64" t="s">
+        <v>129</v>
+      </c>
+      <c r="G64" t="s">
+        <v>145</v>
+      </c>
+      <c r="H64" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>15</v>
+      </c>
+      <c r="B65" t="s">
+        <v>173</v>
+      </c>
+      <c r="C65" t="s">
+        <v>15</v>
+      </c>
+      <c r="D65" t="s">
+        <v>15</v>
+      </c>
+      <c r="E65" t="s">
+        <v>15</v>
+      </c>
+      <c r="F65" t="s">
+        <v>129</v>
+      </c>
+      <c r="G65" t="s">
+        <v>146</v>
+      </c>
+      <c r="H65" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>15</v>
+      </c>
+      <c r="B66" t="s">
+        <v>173</v>
+      </c>
+      <c r="C66" t="s">
+        <v>15</v>
+      </c>
+      <c r="D66" t="s">
+        <v>15</v>
+      </c>
+      <c r="E66" t="s">
+        <v>15</v>
+      </c>
+      <c r="F66" t="s">
+        <v>129</v>
+      </c>
+      <c r="G66" t="s">
+        <v>147</v>
+      </c>
+      <c r="H66" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>15</v>
+      </c>
+      <c r="B67" t="s">
+        <v>174</v>
+      </c>
+      <c r="C67" t="s">
+        <v>15</v>
+      </c>
+      <c r="D67" t="s">
+        <v>15</v>
+      </c>
+      <c r="E67" t="s">
+        <v>15</v>
+      </c>
+      <c r="F67" t="s">
+        <v>129</v>
+      </c>
+      <c r="G67" t="s">
+        <v>148</v>
+      </c>
+      <c r="H67" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>15</v>
+      </c>
+      <c r="B68" t="s">
+        <v>174</v>
+      </c>
+      <c r="C68" t="s">
+        <v>15</v>
+      </c>
+      <c r="D68" t="s">
+        <v>15</v>
+      </c>
+      <c r="E68" t="s">
+        <v>15</v>
+      </c>
+      <c r="F68" t="s">
+        <v>129</v>
+      </c>
+      <c r="G68" t="s">
+        <v>149</v>
+      </c>
+      <c r="H68" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>15</v>
+      </c>
+      <c r="B69" t="s">
+        <v>174</v>
+      </c>
+      <c r="C69" t="s">
+        <v>15</v>
+      </c>
+      <c r="D69" t="s">
+        <v>15</v>
+      </c>
+      <c r="E69" t="s">
+        <v>15</v>
+      </c>
+      <c r="F69" t="s">
+        <v>129</v>
+      </c>
+      <c r="G69" t="s">
+        <v>150</v>
+      </c>
+      <c r="H69" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>15</v>
+      </c>
+      <c r="B70" t="s">
+        <v>174</v>
+      </c>
+      <c r="C70" t="s">
+        <v>15</v>
+      </c>
+      <c r="D70" t="s">
+        <v>15</v>
+      </c>
+      <c r="E70" t="s">
+        <v>15</v>
+      </c>
+      <c r="F70" t="s">
+        <v>151</v>
+      </c>
+      <c r="G70" t="s">
+        <v>152</v>
+      </c>
+      <c r="H70" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>15</v>
+      </c>
+      <c r="B71" t="s">
+        <v>174</v>
+      </c>
+      <c r="C71" t="s">
+        <v>15</v>
+      </c>
+      <c r="D71" t="s">
+        <v>15</v>
+      </c>
+      <c r="E71" t="s">
+        <v>15</v>
+      </c>
+      <c r="F71" t="s">
+        <v>151</v>
+      </c>
+      <c r="G71" t="s">
+        <v>153</v>
+      </c>
+      <c r="H71" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>15</v>
+      </c>
+      <c r="B72" t="s">
+        <v>174</v>
+      </c>
+      <c r="C72" t="s">
+        <v>15</v>
+      </c>
+      <c r="D72" t="s">
+        <v>15</v>
+      </c>
+      <c r="E72" t="s">
+        <v>15</v>
+      </c>
+      <c r="F72" t="s">
+        <v>151</v>
+      </c>
+      <c r="G72" t="s">
+        <v>154</v>
+      </c>
+      <c r="H72" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>15</v>
+      </c>
+      <c r="B73" t="s">
+        <v>173</v>
+      </c>
+      <c r="C73" t="s">
+        <v>15</v>
+      </c>
+      <c r="D73" t="s">
+        <v>15</v>
+      </c>
+      <c r="E73" t="s">
+        <v>15</v>
+      </c>
+      <c r="F73" t="s">
+        <v>151</v>
+      </c>
+      <c r="G73" t="s">
+        <v>155</v>
+      </c>
+      <c r="H73" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>15</v>
+      </c>
+      <c r="B74" t="s">
+        <v>173</v>
+      </c>
+      <c r="C74" t="s">
+        <v>15</v>
+      </c>
+      <c r="D74" t="s">
+        <v>15</v>
+      </c>
+      <c r="E74" t="s">
+        <v>15</v>
+      </c>
+      <c r="F74" t="s">
+        <v>151</v>
+      </c>
+      <c r="G74" t="s">
+        <v>156</v>
+      </c>
+      <c r="H74" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>15</v>
+      </c>
+      <c r="B75" t="s">
+        <v>173</v>
+      </c>
+      <c r="C75" t="s">
+        <v>15</v>
+      </c>
+      <c r="D75" t="s">
+        <v>15</v>
+      </c>
+      <c r="E75" t="s">
+        <v>15</v>
+      </c>
+      <c r="F75" t="s">
+        <v>151</v>
+      </c>
+      <c r="G75" t="s">
+        <v>157</v>
+      </c>
+      <c r="H75" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>15</v>
+      </c>
+      <c r="B76" t="s">
+        <v>173</v>
+      </c>
+      <c r="C76" t="s">
+        <v>15</v>
+      </c>
+      <c r="D76" t="s">
+        <v>15</v>
+      </c>
+      <c r="E76" t="s">
+        <v>15</v>
+      </c>
+      <c r="F76" t="s">
+        <v>151</v>
+      </c>
+      <c r="G76" t="s">
+        <v>158</v>
+      </c>
+      <c r="H76" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>15</v>
+      </c>
+      <c r="B77" t="s">
+        <v>173</v>
+      </c>
+      <c r="C77" t="s">
+        <v>15</v>
+      </c>
+      <c r="D77" t="s">
+        <v>15</v>
+      </c>
+      <c r="E77" t="s">
+        <v>15</v>
+      </c>
+      <c r="F77" t="s">
+        <v>151</v>
+      </c>
+      <c r="G77" t="s">
+        <v>159</v>
+      </c>
+      <c r="H77" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>15</v>
+      </c>
+      <c r="B78" t="s">
+        <v>172</v>
+      </c>
+      <c r="C78" t="s">
+        <v>15</v>
+      </c>
+      <c r="D78" t="s">
+        <v>15</v>
+      </c>
+      <c r="E78" t="s">
+        <v>15</v>
+      </c>
+      <c r="F78" t="s">
+        <v>151</v>
+      </c>
+      <c r="G78" t="s">
+        <v>160</v>
+      </c>
+      <c r="H78" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>15</v>
+      </c>
+      <c r="B79" t="s">
+        <v>172</v>
+      </c>
+      <c r="C79" t="s">
+        <v>15</v>
+      </c>
+      <c r="D79" t="s">
+        <v>15</v>
+      </c>
+      <c r="E79" t="s">
+        <v>15</v>
+      </c>
+      <c r="F79" t="s">
+        <v>151</v>
+      </c>
+      <c r="G79" t="s">
+        <v>161</v>
+      </c>
+      <c r="H79" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>15</v>
+      </c>
+      <c r="B80" t="s">
+        <v>172</v>
+      </c>
+      <c r="C80" t="s">
+        <v>15</v>
+      </c>
+      <c r="D80" t="s">
+        <v>15</v>
+      </c>
+      <c r="E80" t="s">
+        <v>15</v>
+      </c>
+      <c r="F80" t="s">
+        <v>151</v>
+      </c>
+      <c r="G80" t="s">
+        <v>162</v>
+      </c>
+      <c r="H80" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>15</v>
+      </c>
+      <c r="B81" t="s">
+        <v>172</v>
+      </c>
+      <c r="C81" t="s">
+        <v>15</v>
+      </c>
+      <c r="D81" t="s">
+        <v>15</v>
+      </c>
+      <c r="E81" t="s">
+        <v>15</v>
+      </c>
+      <c r="F81" t="s">
+        <v>151</v>
+      </c>
+      <c r="G81" t="s">
+        <v>163</v>
+      </c>
+      <c r="H81" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>15</v>
+      </c>
+      <c r="B82" t="s">
+        <v>172</v>
+      </c>
+      <c r="C82" t="s">
+        <v>15</v>
+      </c>
+      <c r="D82" t="s">
+        <v>15</v>
+      </c>
+      <c r="E82" t="s">
+        <v>15</v>
+      </c>
+      <c r="F82" t="s">
+        <v>151</v>
+      </c>
+      <c r="G82" t="s">
+        <v>164</v>
+      </c>
+      <c r="H82" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>15</v>
+      </c>
+      <c r="B83" t="s">
+        <v>172</v>
+      </c>
+      <c r="C83" t="s">
+        <v>15</v>
+      </c>
+      <c r="D83" t="s">
+        <v>15</v>
+      </c>
+      <c r="E83" t="s">
+        <v>15</v>
+      </c>
+      <c r="F83" t="s">
+        <v>151</v>
+      </c>
+      <c r="G83" t="s">
+        <v>165</v>
+      </c>
+      <c r="H83" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>15</v>
+      </c>
+      <c r="B84" t="s">
+        <v>171</v>
+      </c>
+      <c r="C84" t="s">
+        <v>15</v>
+      </c>
+      <c r="D84" t="s">
+        <v>15</v>
+      </c>
+      <c r="E84" t="s">
+        <v>15</v>
+      </c>
+      <c r="F84" t="s">
+        <v>151</v>
+      </c>
+      <c r="G84" t="s">
+        <v>166</v>
+      </c>
+      <c r="H84" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>15</v>
+      </c>
+      <c r="B85" t="s">
+        <v>171</v>
+      </c>
+      <c r="C85" t="s">
+        <v>15</v>
+      </c>
+      <c r="D85" t="s">
+        <v>15</v>
+      </c>
+      <c r="E85" t="s">
+        <v>15</v>
+      </c>
+      <c r="F85" t="s">
+        <v>151</v>
+      </c>
+      <c r="G85" t="s">
+        <v>167</v>
+      </c>
+      <c r="H85" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>15</v>
+      </c>
+      <c r="B86" t="s">
+        <v>171</v>
+      </c>
+      <c r="C86" t="s">
+        <v>15</v>
+      </c>
+      <c r="D86" t="s">
+        <v>15</v>
+      </c>
+      <c r="E86" t="s">
+        <v>15</v>
+      </c>
+      <c r="F86" t="s">
+        <v>151</v>
+      </c>
+      <c r="G86" t="s">
+        <v>168</v>
+      </c>
+      <c r="H86" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>15</v>
+      </c>
+      <c r="B87" t="s">
+        <v>169</v>
+      </c>
+      <c r="C87" t="s">
+        <v>15</v>
+      </c>
+      <c r="D87" t="s">
+        <v>15</v>
+      </c>
+      <c r="E87" t="s">
+        <v>15</v>
+      </c>
+      <c r="F87" t="s">
+        <v>15</v>
+      </c>
+      <c r="G87">
+        <v>1</v>
+      </c>
+      <c r="H87" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>15</v>
+      </c>
+      <c r="B88" t="s">
+        <v>169</v>
+      </c>
+      <c r="C88" t="s">
+        <v>15</v>
+      </c>
+      <c r="D88" t="s">
+        <v>15</v>
+      </c>
+      <c r="E88" t="s">
+        <v>15</v>
+      </c>
+      <c r="F88" t="s">
+        <v>15</v>
+      </c>
+      <c r="G88">
+        <v>2</v>
+      </c>
+      <c r="H88" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>15</v>
+      </c>
+      <c r="B89" t="s">
+        <v>169</v>
+      </c>
+      <c r="C89" t="s">
+        <v>15</v>
+      </c>
+      <c r="D89" t="s">
+        <v>15</v>
+      </c>
+      <c r="E89" t="s">
+        <v>15</v>
+      </c>
+      <c r="F89" t="s">
+        <v>15</v>
+      </c>
+      <c r="G89">
+        <v>3</v>
+      </c>
+      <c r="H89" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>15</v>
+      </c>
+      <c r="B90" t="s">
+        <v>169</v>
+      </c>
+      <c r="C90" t="s">
+        <v>15</v>
+      </c>
+      <c r="D90" t="s">
+        <v>15</v>
+      </c>
+      <c r="E90" t="s">
+        <v>15</v>
+      </c>
+      <c r="F90" t="s">
+        <v>15</v>
+      </c>
+      <c r="G90">
+        <v>4</v>
+      </c>
+      <c r="H90" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>15</v>
+      </c>
+      <c r="B91" t="s">
+        <v>169</v>
+      </c>
+      <c r="C91" t="s">
+        <v>15</v>
+      </c>
+      <c r="D91" t="s">
+        <v>15</v>
+      </c>
+      <c r="E91" t="s">
+        <v>15</v>
+      </c>
+      <c r="F91" t="s">
+        <v>15</v>
+      </c>
+      <c r="G91">
+        <v>5</v>
+      </c>
+      <c r="H91" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>15</v>
+      </c>
+      <c r="B92" t="s">
+        <v>169</v>
+      </c>
+      <c r="C92" t="s">
+        <v>15</v>
+      </c>
+      <c r="D92" t="s">
+        <v>15</v>
+      </c>
+      <c r="E92" t="s">
+        <v>15</v>
+      </c>
+      <c r="F92" t="s">
+        <v>15</v>
+      </c>
+      <c r="G92">
+        <v>6</v>
+      </c>
+      <c r="H92" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>15</v>
+      </c>
+      <c r="B93" t="s">
+        <v>169</v>
+      </c>
+      <c r="C93" t="s">
+        <v>15</v>
+      </c>
+      <c r="D93" t="s">
+        <v>15</v>
+      </c>
+      <c r="E93" t="s">
+        <v>15</v>
+      </c>
+      <c r="F93" t="s">
+        <v>15</v>
+      </c>
+      <c r="G93">
+        <v>7</v>
+      </c>
+      <c r="H93" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>15</v>
+      </c>
+      <c r="B94" t="s">
+        <v>169</v>
+      </c>
+      <c r="C94" t="s">
+        <v>15</v>
+      </c>
+      <c r="D94" t="s">
+        <v>15</v>
+      </c>
+      <c r="E94" t="s">
+        <v>15</v>
+      </c>
+      <c r="F94" t="s">
+        <v>15</v>
+      </c>
+      <c r="G94">
+        <v>8</v>
+      </c>
+      <c r="H94" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>15</v>
+      </c>
+      <c r="B95" t="s">
+        <v>169</v>
+      </c>
+      <c r="C95" t="s">
+        <v>15</v>
+      </c>
+      <c r="D95" t="s">
+        <v>15</v>
+      </c>
+      <c r="E95" t="s">
+        <v>15</v>
+      </c>
+      <c r="F95" t="s">
+        <v>15</v>
+      </c>
+      <c r="G95">
+        <v>9</v>
+      </c>
+      <c r="H95" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>15</v>
+      </c>
+      <c r="B96" t="s">
+        <v>169</v>
+      </c>
+      <c r="C96" t="s">
+        <v>15</v>
+      </c>
+      <c r="D96" t="s">
+        <v>15</v>
+      </c>
+      <c r="E96" t="s">
+        <v>15</v>
+      </c>
+      <c r="F96" t="s">
+        <v>15</v>
+      </c>
+      <c r="G96">
+        <v>10</v>
+      </c>
+      <c r="H96" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>15</v>
+      </c>
+      <c r="B97" t="s">
+        <v>169</v>
+      </c>
+      <c r="C97" t="s">
+        <v>15</v>
+      </c>
+      <c r="D97" t="s">
+        <v>15</v>
+      </c>
+      <c r="E97" t="s">
+        <v>15</v>
+      </c>
+      <c r="F97" t="s">
+        <v>15</v>
+      </c>
+      <c r="G97">
+        <v>11</v>
+      </c>
+      <c r="H97" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>15</v>
+      </c>
+      <c r="B98" t="s">
+        <v>169</v>
+      </c>
+      <c r="C98" t="s">
+        <v>15</v>
+      </c>
+      <c r="D98" t="s">
+        <v>15</v>
+      </c>
+      <c r="E98" t="s">
+        <v>15</v>
+      </c>
+      <c r="F98" t="s">
+        <v>15</v>
+      </c>
+      <c r="G98">
+        <v>12</v>
+      </c>
+      <c r="H98" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>15</v>
+      </c>
+      <c r="B99" t="s">
+        <v>170</v>
+      </c>
+      <c r="C99" t="s">
+        <v>15</v>
+      </c>
+      <c r="D99" t="s">
+        <v>15</v>
+      </c>
+      <c r="E99" t="s">
+        <v>15</v>
+      </c>
+      <c r="F99" t="s">
+        <v>15</v>
+      </c>
+      <c r="G99">
+        <v>1</v>
+      </c>
+      <c r="H99" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>15</v>
+      </c>
+      <c r="B100" t="s">
+        <v>170</v>
+      </c>
+      <c r="C100" t="s">
+        <v>15</v>
+      </c>
+      <c r="D100" t="s">
+        <v>15</v>
+      </c>
+      <c r="E100" t="s">
+        <v>15</v>
+      </c>
+      <c r="F100" t="s">
+        <v>15</v>
+      </c>
+      <c r="G100">
+        <v>2</v>
+      </c>
+      <c r="H100" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>15</v>
+      </c>
+      <c r="B101" t="s">
+        <v>170</v>
+      </c>
+      <c r="C101" t="s">
+        <v>15</v>
+      </c>
+      <c r="D101" t="s">
+        <v>15</v>
+      </c>
+      <c r="E101" t="s">
+        <v>15</v>
+      </c>
+      <c r="F101" t="s">
+        <v>15</v>
+      </c>
+      <c r="G101">
+        <v>3</v>
+      </c>
+      <c r="H101" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>15</v>
+      </c>
+      <c r="B102" t="s">
+        <v>170</v>
+      </c>
+      <c r="C102" t="s">
+        <v>15</v>
+      </c>
+      <c r="D102" t="s">
+        <v>15</v>
+      </c>
+      <c r="E102" t="s">
+        <v>15</v>
+      </c>
+      <c r="F102" t="s">
+        <v>15</v>
+      </c>
+      <c r="G102">
+        <v>4</v>
+      </c>
+      <c r="H102" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>15</v>
+      </c>
+      <c r="B103" t="s">
+        <v>170</v>
+      </c>
+      <c r="C103" t="s">
+        <v>15</v>
+      </c>
+      <c r="D103" t="s">
+        <v>15</v>
+      </c>
+      <c r="E103" t="s">
+        <v>15</v>
+      </c>
+      <c r="F103" t="s">
+        <v>15</v>
+      </c>
+      <c r="G103">
+        <v>5</v>
+      </c>
+      <c r="H103" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>15</v>
+      </c>
+      <c r="B104" t="s">
+        <v>170</v>
+      </c>
+      <c r="C104" t="s">
+        <v>15</v>
+      </c>
+      <c r="D104" t="s">
+        <v>15</v>
+      </c>
+      <c r="E104" t="s">
+        <v>15</v>
+      </c>
+      <c r="F104" t="s">
+        <v>15</v>
+      </c>
+      <c r="G104">
+        <v>6</v>
+      </c>
+      <c r="H104" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>15</v>
+      </c>
+      <c r="B105" t="s">
+        <v>170</v>
+      </c>
+      <c r="C105" t="s">
+        <v>15</v>
+      </c>
+      <c r="D105" t="s">
+        <v>15</v>
+      </c>
+      <c r="E105" t="s">
+        <v>15</v>
+      </c>
+      <c r="F105" t="s">
+        <v>15</v>
+      </c>
+      <c r="G105">
+        <v>7</v>
+      </c>
+      <c r="H105" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>15</v>
+      </c>
+      <c r="B106" t="s">
+        <v>170</v>
+      </c>
+      <c r="C106" t="s">
+        <v>15</v>
+      </c>
+      <c r="D106" t="s">
+        <v>15</v>
+      </c>
+      <c r="E106" t="s">
+        <v>15</v>
+      </c>
+      <c r="F106" t="s">
+        <v>15</v>
+      </c>
+      <c r="G106">
+        <v>8</v>
+      </c>
+      <c r="H106" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>15</v>
+      </c>
+      <c r="B107" t="s">
+        <v>170</v>
+      </c>
+      <c r="C107" t="s">
+        <v>15</v>
+      </c>
+      <c r="D107" t="s">
+        <v>15</v>
+      </c>
+      <c r="E107" t="s">
+        <v>15</v>
+      </c>
+      <c r="F107" t="s">
+        <v>15</v>
+      </c>
+      <c r="G107">
+        <v>9</v>
+      </c>
+      <c r="H107" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>15</v>
+      </c>
+      <c r="B108" t="s">
+        <v>170</v>
+      </c>
+      <c r="C108" t="s">
+        <v>15</v>
+      </c>
+      <c r="D108" t="s">
+        <v>15</v>
+      </c>
+      <c r="E108" t="s">
+        <v>15</v>
+      </c>
+      <c r="F108" t="s">
+        <v>15</v>
+      </c>
+      <c r="G108">
+        <v>10</v>
+      </c>
+      <c r="H108" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>15</v>
+      </c>
+      <c r="B109" t="s">
+        <v>170</v>
+      </c>
+      <c r="C109" t="s">
+        <v>15</v>
+      </c>
+      <c r="D109" t="s">
+        <v>15</v>
+      </c>
+      <c r="E109" t="s">
+        <v>15</v>
+      </c>
+      <c r="F109" t="s">
+        <v>15</v>
+      </c>
+      <c r="G109">
+        <v>11</v>
+      </c>
+      <c r="H109" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>15</v>
+      </c>
+      <c r="B110" t="s">
+        <v>170</v>
+      </c>
+      <c r="C110" t="s">
+        <v>15</v>
+      </c>
+      <c r="D110" t="s">
+        <v>15</v>
+      </c>
+      <c r="E110" t="s">
+        <v>15</v>
+      </c>
+      <c r="F110" t="s">
+        <v>15</v>
+      </c>
+      <c r="G110">
+        <v>12</v>
+      </c>
+      <c r="H110" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>15</v>
+      </c>
+      <c r="B111" t="s">
+        <v>170</v>
+      </c>
+      <c r="C111" t="s">
+        <v>15</v>
+      </c>
+      <c r="D111" t="s">
+        <v>15</v>
+      </c>
+      <c r="E111" t="s">
+        <v>15</v>
+      </c>
+      <c r="F111" t="s">
+        <v>15</v>
+      </c>
+      <c r="G111">
+        <v>13</v>
+      </c>
+      <c r="H111" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>15</v>
+      </c>
+      <c r="B112" t="s">
+        <v>170</v>
+      </c>
+      <c r="C112" t="s">
+        <v>15</v>
+      </c>
+      <c r="D112" t="s">
+        <v>15</v>
+      </c>
+      <c r="E112" t="s">
+        <v>15</v>
+      </c>
+      <c r="F112" t="s">
+        <v>15</v>
+      </c>
+      <c r="G112">
+        <v>14</v>
+      </c>
+      <c r="H112" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>15</v>
+      </c>
+      <c r="B113" t="s">
+        <v>170</v>
+      </c>
+      <c r="C113" t="s">
+        <v>15</v>
+      </c>
+      <c r="D113" t="s">
+        <v>15</v>
+      </c>
+      <c r="E113" t="s">
+        <v>15</v>
+      </c>
+      <c r="F113" t="s">
+        <v>15</v>
+      </c>
+      <c r="G113">
+        <v>15</v>
+      </c>
+      <c r="H113" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>15</v>
+      </c>
+      <c r="B114" t="s">
+        <v>170</v>
+      </c>
+      <c r="C114" t="s">
+        <v>15</v>
+      </c>
+      <c r="D114" t="s">
+        <v>15</v>
+      </c>
+      <c r="E114" t="s">
+        <v>15</v>
+      </c>
+      <c r="F114" t="s">
+        <v>15</v>
+      </c>
+      <c r="G114">
+        <v>16</v>
+      </c>
+      <c r="H114" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>15</v>
+      </c>
+      <c r="B115" t="s">
+        <v>170</v>
+      </c>
+      <c r="C115" t="s">
+        <v>15</v>
+      </c>
+      <c r="D115" t="s">
+        <v>15</v>
+      </c>
+      <c r="E115" t="s">
+        <v>15</v>
+      </c>
+      <c r="F115" t="s">
+        <v>15</v>
+      </c>
+      <c r="G115">
+        <v>17</v>
+      </c>
+      <c r="H115" t="s">
+        <v>170</v>
+      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>